--- a/paper/sectors.xlsx
+++ b/paper/sectors.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahnesser/Documents/Harvard/Research/TROPOMI_Inversion/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2980AEF-874B-D34C-83E5-6DB33AC6FC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A030C93C-B04E-8B47-B40F-D59B7B290F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17960" windowHeight="20300" xr2:uid="{95ADAA5D-9913-4C42-80C5-C44B6108DEC1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20300" activeTab="3" xr2:uid="{95ADAA5D-9913-4C42-80C5-C44B6108DEC1}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="raw_epa" sheetId="3" r:id="rId2"/>
+    <sheet name="epa" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Prior</t>
   </si>
@@ -64,9 +67,6 @@
   </si>
   <si>
     <t>Posterior</t>
-  </si>
-  <si>
-    <t>Averaging kernel sensitivity</t>
   </si>
   <si>
     <t>ong</t>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>53 (36 - 69)</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>minus_sq</t>
+  </si>
+  <si>
+    <t>plus_sq</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
   </si>
 </sst>
 </file>
@@ -512,11 +530,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,6 +1028,615 @@
           </cell>
           <cell r="D33">
             <v>0.114169964707868</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="epa_ghgi_2022"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>sector</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>subsector</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>mean_MMTCO2</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>minus_MMTCO2</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>plus_MMTCO2</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>mean_all</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>minus</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>plus</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>AK</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>HI</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>mean</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>livestock</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>enteric_fermentation</v>
+          </cell>
+          <cell r="C2">
+            <v>176.1</v>
+          </cell>
+          <cell r="D2">
+            <v>0.1</v>
+          </cell>
+          <cell r="E2">
+            <v>0.1</v>
+          </cell>
+          <cell r="F2">
+            <v>7.0439999999999996</v>
+          </cell>
+          <cell r="G2">
+            <v>0.70440000000000003</v>
+          </cell>
+          <cell r="H2">
+            <v>0.70440000000000003</v>
+          </cell>
+          <cell r="I2">
+            <v>1.3408820105E-3</v>
+          </cell>
+          <cell r="J2">
+            <v>1.0180721213799999E-2</v>
+          </cell>
+          <cell r="K2">
+            <v>7.0324783999999996</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>livestock</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>manure_management</v>
+          </cell>
+          <cell r="C3">
+            <v>58.7</v>
+          </cell>
+          <cell r="D3">
+            <v>0.18</v>
+          </cell>
+          <cell r="E3">
+            <v>0.2</v>
+          </cell>
+          <cell r="F3">
+            <v>2.3479999999999999</v>
+          </cell>
+          <cell r="G3">
+            <v>0.42264000000000002</v>
+          </cell>
+          <cell r="H3">
+            <v>0.46960000000000002</v>
+          </cell>
+          <cell r="I3">
+            <v>2.8038590000000002E-5</v>
+          </cell>
+          <cell r="J3">
+            <v>5.3562152959999994E-4</v>
+          </cell>
+          <cell r="K3">
+            <v>2.3474363409999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>ong</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>natural_gas_systems</v>
+          </cell>
+          <cell r="C4">
+            <v>172.2</v>
+          </cell>
+          <cell r="D4">
+            <v>0.18</v>
+          </cell>
+          <cell r="E4">
+            <v>0.18</v>
+          </cell>
+          <cell r="F4">
+            <v>6.8879999999999999</v>
+          </cell>
+          <cell r="G4">
+            <v>1.2398400000000001</v>
+          </cell>
+          <cell r="H4">
+            <v>1.2398400000000001</v>
+          </cell>
+          <cell r="I4">
+            <v>1.8473119999999999E-2</v>
+          </cell>
+          <cell r="J4">
+            <v>5.7967999999999995E-4</v>
+          </cell>
+          <cell r="K4">
+            <v>6.8689472</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ong</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>abandoned_wells</v>
+          </cell>
+          <cell r="C5">
+            <v>7</v>
+          </cell>
+          <cell r="D5">
+            <v>0.83</v>
+          </cell>
+          <cell r="E5">
+            <v>1.97</v>
+          </cell>
+          <cell r="F5">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="G5">
+            <v>0.2324</v>
+          </cell>
+          <cell r="H5">
+            <v>0.55159999999999998</v>
+          </cell>
+          <cell r="I5">
+            <v>2.0330000000000001E-4</v>
+          </cell>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
+          <cell r="K5">
+            <v>0.27979670000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>ong</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>petroleum_systems</v>
+          </cell>
+          <cell r="C6">
+            <v>40.4</v>
+          </cell>
+          <cell r="D6">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="E6">
+            <v>0.32</v>
+          </cell>
+          <cell r="F6">
+            <v>1.6160000000000001</v>
+          </cell>
+          <cell r="G6">
+            <v>0.45247999999999999</v>
+          </cell>
+          <cell r="H6">
+            <v>0.51712000000000002</v>
+          </cell>
+          <cell r="I6">
+            <v>2.667282E-2</v>
+          </cell>
+          <cell r="J6">
+            <v>2.7603E-5</v>
+          </cell>
+          <cell r="K6">
+            <v>1.589299577</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>landfills</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>landfills</v>
+          </cell>
+          <cell r="C7">
+            <v>113.6</v>
+          </cell>
+          <cell r="D7">
+            <v>0.23</v>
+          </cell>
+          <cell r="E7">
+            <v>0.22</v>
+          </cell>
+          <cell r="F7">
+            <v>4.5439999999999996</v>
+          </cell>
+          <cell r="G7">
+            <v>1.04512</v>
+          </cell>
+          <cell r="H7">
+            <v>0.99968000000000001</v>
+          </cell>
+          <cell r="I7">
+            <v>1.921227E-2</v>
+          </cell>
+          <cell r="J7">
+            <v>1.359549E-2</v>
+          </cell>
+          <cell r="K7">
+            <v>4.5111922399999997</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>coal</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>coal_mining</v>
+          </cell>
+          <cell r="C8">
+            <v>47.4</v>
+          </cell>
+          <cell r="D8">
+            <v>0.09</v>
+          </cell>
+          <cell r="E8">
+            <v>0.17</v>
+          </cell>
+          <cell r="F8">
+            <v>1.8959999999999999</v>
+          </cell>
+          <cell r="G8">
+            <v>0.17063999999999999</v>
+          </cell>
+          <cell r="H8">
+            <v>0.32232</v>
+          </cell>
+          <cell r="I8">
+            <v>5.4816999999999995E-4</v>
+          </cell>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
+          <cell r="K8">
+            <v>1.8954518300000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>coal</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>abandoned_coal</v>
+          </cell>
+          <cell r="C9">
+            <v>5.9</v>
+          </cell>
+          <cell r="D9">
+            <v>0.22</v>
+          </cell>
+          <cell r="E9">
+            <v>0.2</v>
+          </cell>
+          <cell r="F9">
+            <v>0.23599999999999999</v>
+          </cell>
+          <cell r="G9">
+            <v>5.1920000000000001E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>4.7199999999999999E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>0.23599999999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>wastewater</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>wastewater</v>
+          </cell>
+          <cell r="C10">
+            <v>18.100000000000001</v>
+          </cell>
+          <cell r="D10">
+            <v>0.35</v>
+          </cell>
+          <cell r="E10">
+            <v>0.23</v>
+          </cell>
+          <cell r="F10">
+            <v>0.72399999999999998</v>
+          </cell>
+          <cell r="G10">
+            <v>0.25340000000000001</v>
+          </cell>
+          <cell r="H10">
+            <v>0.16652</v>
+          </cell>
+          <cell r="I10">
+            <v>1.07891E-3</v>
+          </cell>
+          <cell r="J10">
+            <v>2.0542799999999999E-3</v>
+          </cell>
+          <cell r="K10">
+            <v>0.72086680999999997</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>rice</v>
+          </cell>
+          <cell r="C11">
+            <v>15.1</v>
+          </cell>
+          <cell r="D11">
+            <v>0.75</v>
+          </cell>
+          <cell r="E11">
+            <v>0.75</v>
+          </cell>
+          <cell r="F11">
+            <v>0.60399999999999998</v>
+          </cell>
+          <cell r="G11">
+            <v>0.45300000000000001</v>
+          </cell>
+          <cell r="H11">
+            <v>0.45300000000000001</v>
+          </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
+          <cell r="K11">
+            <v>0.60399999999999998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>stationary_combustion</v>
+          </cell>
+          <cell r="C12">
+            <v>8.8000000000000007</v>
+          </cell>
+          <cell r="D12">
+            <v>0.34</v>
+          </cell>
+          <cell r="E12">
+            <v>1.25</v>
+          </cell>
+          <cell r="F12">
+            <v>0.35199999999999998</v>
+          </cell>
+          <cell r="G12">
+            <v>0.11967999999999999</v>
+          </cell>
+          <cell r="H12">
+            <v>0.44</v>
+          </cell>
+          <cell r="I12">
+            <v>2.57479E-3</v>
+          </cell>
+          <cell r="J12">
+            <v>1.2066999999999999E-4</v>
+          </cell>
+          <cell r="K12">
+            <v>0.34930454</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>mobile_combustion</v>
+          </cell>
+          <cell r="C13">
+            <v>2.5</v>
+          </cell>
+          <cell r="D13">
+            <v>0.08</v>
+          </cell>
+          <cell r="E13">
+            <v>0.24</v>
+          </cell>
+          <cell r="F13">
+            <v>0.1</v>
+          </cell>
+          <cell r="G13">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+          <cell r="H13">
+            <v>2.4E-2</v>
+          </cell>
+          <cell r="I13">
+            <v>3.7681999999999999E-4</v>
+          </cell>
+          <cell r="J13">
+            <v>7.0629000000000004E-4</v>
+          </cell>
+          <cell r="K13">
+            <v>9.8916889999999993E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>field_burning</v>
+          </cell>
+          <cell r="C14">
+            <v>0.4</v>
+          </cell>
+          <cell r="D14">
+            <v>0.18</v>
+          </cell>
+          <cell r="E14">
+            <v>0.18</v>
+          </cell>
+          <cell r="F14">
+            <v>1.6E-2</v>
+          </cell>
+          <cell r="G14">
+            <v>2.8800000000000002E-3</v>
+          </cell>
+          <cell r="H14">
+            <v>2.8800000000000002E-3</v>
+          </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
+          <cell r="K14">
+            <v>1.6E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>petrochemical_production</v>
+          </cell>
+          <cell r="C15">
+            <v>0.3</v>
+          </cell>
+          <cell r="D15">
+            <v>0.56999999999999995</v>
+          </cell>
+          <cell r="E15">
+            <v>0.46</v>
+          </cell>
+          <cell r="F15">
+            <v>1.2E-2</v>
+          </cell>
+          <cell r="G15">
+            <v>6.8399999999999997E-3</v>
+          </cell>
+          <cell r="H15">
+            <v>5.5199999999999997E-3</v>
+          </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>1.2E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>anaroebic_digestion</v>
+          </cell>
+          <cell r="C16">
+            <v>0.2</v>
+          </cell>
+          <cell r="D16">
+            <v>0.54</v>
+          </cell>
+          <cell r="E16">
+            <v>0.54</v>
+          </cell>
+          <cell r="F16">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+          <cell r="G16">
+            <v>4.3200000000000001E-3</v>
+          </cell>
+          <cell r="H16">
+            <v>4.3200000000000001E-3</v>
+          </cell>
+          <cell r="I16">
+            <v>0</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+          <cell r="K16">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>composting</v>
+          </cell>
+          <cell r="C17">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="D17">
+            <v>0.57999999999999996</v>
+          </cell>
+          <cell r="E17">
+            <v>0.57999999999999996</v>
+          </cell>
+          <cell r="F17">
+            <v>9.1999999999999998E-2</v>
+          </cell>
+          <cell r="G17">
+            <v>5.3359999999999998E-2</v>
+          </cell>
+          <cell r="H17">
+            <v>5.3359999999999998E-2</v>
+          </cell>
+          <cell r="I17">
+            <v>0</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>9.1999999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1317,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE535C22-7789-9644-A253-95C7CCE1C9F9}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,28 +1971,28 @@
         <v>max</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2830,11 +3457,1070 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9464AA2-F105-564E-8ADC-8A6D37F89D9F}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>[2]epa_ghgi_2022!A1</f>
+        <v>sector</v>
+      </c>
+      <c r="B1" t="str">
+        <f>[2]epa_ghgi_2022!B1</f>
+        <v>subsector</v>
+      </c>
+      <c r="C1" t="str">
+        <f>[2]epa_ghgi_2022!C1</f>
+        <v>mean_MMTCO2</v>
+      </c>
+      <c r="D1" t="str">
+        <f>[2]epa_ghgi_2022!D1</f>
+        <v>minus_MMTCO2</v>
+      </c>
+      <c r="E1" t="str">
+        <f>[2]epa_ghgi_2022!E1</f>
+        <v>plus_MMTCO2</v>
+      </c>
+      <c r="F1" t="str">
+        <f>[2]epa_ghgi_2022!F1</f>
+        <v>mean_all</v>
+      </c>
+      <c r="G1" t="str">
+        <f>[2]epa_ghgi_2022!G1</f>
+        <v>minus</v>
+      </c>
+      <c r="H1" t="str">
+        <f>[2]epa_ghgi_2022!H1</f>
+        <v>plus</v>
+      </c>
+      <c r="I1" t="str">
+        <f>[2]epa_ghgi_2022!I1</f>
+        <v>AK</v>
+      </c>
+      <c r="J1" t="str">
+        <f>[2]epa_ghgi_2022!J1</f>
+        <v>HI</v>
+      </c>
+      <c r="K1" t="str">
+        <f>[2]epa_ghgi_2022!K1</f>
+        <v>mean</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>[2]epa_ghgi_2022!A2</f>
+        <v>livestock</v>
+      </c>
+      <c r="B2" t="str">
+        <f>[2]epa_ghgi_2022!B2</f>
+        <v>enteric_fermentation</v>
+      </c>
+      <c r="C2">
+        <f>[2]epa_ghgi_2022!C2</f>
+        <v>176.1</v>
+      </c>
+      <c r="D2">
+        <f>[2]epa_ghgi_2022!D2</f>
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <f>[2]epa_ghgi_2022!E2</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <f>[2]epa_ghgi_2022!F2</f>
+        <v>7.0439999999999996</v>
+      </c>
+      <c r="G2">
+        <f>[2]epa_ghgi_2022!G2</f>
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="H2">
+        <f>[2]epa_ghgi_2022!H2</f>
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="I2">
+        <f>[2]epa_ghgi_2022!I2</f>
+        <v>1.3408820105E-3</v>
+      </c>
+      <c r="J2">
+        <f>[2]epa_ghgi_2022!J2</f>
+        <v>1.0180721213799999E-2</v>
+      </c>
+      <c r="K2">
+        <f>[2]epa_ghgi_2022!K2</f>
+        <v>7.0324783999999996</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L17" si="0">G2^2</f>
+        <v>0.49617936000000001</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M17" si="1">H2^2</f>
+        <v>0.49617936000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>[2]epa_ghgi_2022!A3</f>
+        <v>livestock</v>
+      </c>
+      <c r="B3" t="str">
+        <f>[2]epa_ghgi_2022!B3</f>
+        <v>manure_management</v>
+      </c>
+      <c r="C3">
+        <f>[2]epa_ghgi_2022!C3</f>
+        <v>58.7</v>
+      </c>
+      <c r="D3">
+        <f>[2]epa_ghgi_2022!D3</f>
+        <v>0.18</v>
+      </c>
+      <c r="E3">
+        <f>[2]epa_ghgi_2022!E3</f>
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <f>[2]epa_ghgi_2022!F3</f>
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="G3">
+        <f>[2]epa_ghgi_2022!G3</f>
+        <v>0.42264000000000002</v>
+      </c>
+      <c r="H3">
+        <f>[2]epa_ghgi_2022!H3</f>
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="I3">
+        <f>[2]epa_ghgi_2022!I3</f>
+        <v>2.8038590000000002E-5</v>
+      </c>
+      <c r="J3">
+        <f>[2]epa_ghgi_2022!J3</f>
+        <v>5.3562152959999994E-4</v>
+      </c>
+      <c r="K3">
+        <f>[2]epa_ghgi_2022!K3</f>
+        <v>2.3474363409999999</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0.1786245696</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>0.22052416000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>[2]epa_ghgi_2022!A4</f>
+        <v>ong</v>
+      </c>
+      <c r="B4" t="str">
+        <f>[2]epa_ghgi_2022!B4</f>
+        <v>natural_gas_systems</v>
+      </c>
+      <c r="C4">
+        <f>[2]epa_ghgi_2022!C4</f>
+        <v>172.2</v>
+      </c>
+      <c r="D4">
+        <f>[2]epa_ghgi_2022!D4</f>
+        <v>0.18</v>
+      </c>
+      <c r="E4">
+        <f>[2]epa_ghgi_2022!E4</f>
+        <v>0.18</v>
+      </c>
+      <c r="F4">
+        <f>[2]epa_ghgi_2022!F4</f>
+        <v>6.8879999999999999</v>
+      </c>
+      <c r="G4">
+        <f>[2]epa_ghgi_2022!G4</f>
+        <v>1.2398400000000001</v>
+      </c>
+      <c r="H4">
+        <f>[2]epa_ghgi_2022!H4</f>
+        <v>1.2398400000000001</v>
+      </c>
+      <c r="I4">
+        <f>[2]epa_ghgi_2022!I4</f>
+        <v>1.8473119999999999E-2</v>
+      </c>
+      <c r="J4">
+        <f>[2]epa_ghgi_2022!J4</f>
+        <v>5.7967999999999995E-4</v>
+      </c>
+      <c r="K4">
+        <f>[2]epa_ghgi_2022!K4</f>
+        <v>6.8689472</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.5372032256000001</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>1.5372032256000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>[2]epa_ghgi_2022!A5</f>
+        <v>ong</v>
+      </c>
+      <c r="B5" t="str">
+        <f>[2]epa_ghgi_2022!B5</f>
+        <v>abandoned_wells</v>
+      </c>
+      <c r="C5">
+        <f>[2]epa_ghgi_2022!C5</f>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>[2]epa_ghgi_2022!D5</f>
+        <v>0.83</v>
+      </c>
+      <c r="E5">
+        <f>[2]epa_ghgi_2022!E5</f>
+        <v>1.97</v>
+      </c>
+      <c r="F5">
+        <f>[2]epa_ghgi_2022!F5</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G5">
+        <f>[2]epa_ghgi_2022!G5</f>
+        <v>0.2324</v>
+      </c>
+      <c r="H5">
+        <f>[2]epa_ghgi_2022!H5</f>
+        <v>0.55159999999999998</v>
+      </c>
+      <c r="I5">
+        <f>[2]epa_ghgi_2022!I5</f>
+        <v>2.0330000000000001E-4</v>
+      </c>
+      <c r="J5">
+        <f>[2]epa_ghgi_2022!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>[2]epa_ghgi_2022!K5</f>
+        <v>0.27979670000000001</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>5.4009759999999997E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.30426255999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>[2]epa_ghgi_2022!A6</f>
+        <v>ong</v>
+      </c>
+      <c r="B6" t="str">
+        <f>[2]epa_ghgi_2022!B6</f>
+        <v>petroleum_systems</v>
+      </c>
+      <c r="C6">
+        <f>[2]epa_ghgi_2022!C6</f>
+        <v>40.4</v>
+      </c>
+      <c r="D6">
+        <f>[2]epa_ghgi_2022!D6</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E6">
+        <f>[2]epa_ghgi_2022!E6</f>
+        <v>0.32</v>
+      </c>
+      <c r="F6">
+        <f>[2]epa_ghgi_2022!F6</f>
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="G6">
+        <f>[2]epa_ghgi_2022!G6</f>
+        <v>0.45247999999999999</v>
+      </c>
+      <c r="H6">
+        <f>[2]epa_ghgi_2022!H6</f>
+        <v>0.51712000000000002</v>
+      </c>
+      <c r="I6">
+        <f>[2]epa_ghgi_2022!I6</f>
+        <v>2.667282E-2</v>
+      </c>
+      <c r="J6">
+        <f>[2]epa_ghgi_2022!J6</f>
+        <v>2.7603E-5</v>
+      </c>
+      <c r="K6">
+        <f>[2]epa_ghgi_2022!K6</f>
+        <v>1.589299577</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.20473815039999999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0.26741309440000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>[2]epa_ghgi_2022!A7</f>
+        <v>landfills</v>
+      </c>
+      <c r="B7" t="str">
+        <f>[2]epa_ghgi_2022!B7</f>
+        <v>landfills</v>
+      </c>
+      <c r="C7">
+        <f>[2]epa_ghgi_2022!C7</f>
+        <v>113.6</v>
+      </c>
+      <c r="D7">
+        <f>[2]epa_ghgi_2022!D7</f>
+        <v>0.23</v>
+      </c>
+      <c r="E7">
+        <f>[2]epa_ghgi_2022!E7</f>
+        <v>0.22</v>
+      </c>
+      <c r="F7">
+        <f>[2]epa_ghgi_2022!F7</f>
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="G7">
+        <f>[2]epa_ghgi_2022!G7</f>
+        <v>1.04512</v>
+      </c>
+      <c r="H7">
+        <f>[2]epa_ghgi_2022!H7</f>
+        <v>0.99968000000000001</v>
+      </c>
+      <c r="I7">
+        <f>[2]epa_ghgi_2022!I7</f>
+        <v>1.921227E-2</v>
+      </c>
+      <c r="J7">
+        <f>[2]epa_ghgi_2022!J7</f>
+        <v>1.359549E-2</v>
+      </c>
+      <c r="K7">
+        <f>[2]epa_ghgi_2022!K7</f>
+        <v>4.5111922399999997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1.0922758144000002</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.99936010240000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>[2]epa_ghgi_2022!A8</f>
+        <v>coal</v>
+      </c>
+      <c r="B8" t="str">
+        <f>[2]epa_ghgi_2022!B8</f>
+        <v>coal_mining</v>
+      </c>
+      <c r="C8">
+        <f>[2]epa_ghgi_2022!C8</f>
+        <v>47.4</v>
+      </c>
+      <c r="D8">
+        <f>[2]epa_ghgi_2022!D8</f>
+        <v>0.09</v>
+      </c>
+      <c r="E8">
+        <f>[2]epa_ghgi_2022!E8</f>
+        <v>0.17</v>
+      </c>
+      <c r="F8">
+        <f>[2]epa_ghgi_2022!F8</f>
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="G8">
+        <f>[2]epa_ghgi_2022!G8</f>
+        <v>0.17063999999999999</v>
+      </c>
+      <c r="H8">
+        <f>[2]epa_ghgi_2022!H8</f>
+        <v>0.32232</v>
+      </c>
+      <c r="I8">
+        <f>[2]epa_ghgi_2022!I8</f>
+        <v>5.4816999999999995E-4</v>
+      </c>
+      <c r="J8">
+        <f>[2]epa_ghgi_2022!J8</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>[2]epa_ghgi_2022!K8</f>
+        <v>1.8954518300000001</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>2.9118009599999994E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.1038901824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>[2]epa_ghgi_2022!A9</f>
+        <v>coal</v>
+      </c>
+      <c r="B9" t="str">
+        <f>[2]epa_ghgi_2022!B9</f>
+        <v>abandoned_coal</v>
+      </c>
+      <c r="C9">
+        <f>[2]epa_ghgi_2022!C9</f>
+        <v>5.9</v>
+      </c>
+      <c r="D9">
+        <f>[2]epa_ghgi_2022!D9</f>
+        <v>0.22</v>
+      </c>
+      <c r="E9">
+        <f>[2]epa_ghgi_2022!E9</f>
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <f>[2]epa_ghgi_2022!F9</f>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G9">
+        <f>[2]epa_ghgi_2022!G9</f>
+        <v>5.1920000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <f>[2]epa_ghgi_2022!H9</f>
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <f>[2]epa_ghgi_2022!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>[2]epa_ghgi_2022!J9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>[2]epa_ghgi_2022!K9</f>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>2.6956864000000002E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>2.22784E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>[2]epa_ghgi_2022!A10</f>
+        <v>wastewater</v>
+      </c>
+      <c r="B10" t="str">
+        <f>[2]epa_ghgi_2022!B10</f>
+        <v>wastewater</v>
+      </c>
+      <c r="C10">
+        <f>[2]epa_ghgi_2022!C10</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D10">
+        <f>[2]epa_ghgi_2022!D10</f>
+        <v>0.35</v>
+      </c>
+      <c r="E10">
+        <f>[2]epa_ghgi_2022!E10</f>
+        <v>0.23</v>
+      </c>
+      <c r="F10">
+        <f>[2]epa_ghgi_2022!F10</f>
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="G10">
+        <f>[2]epa_ghgi_2022!G10</f>
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="H10">
+        <f>[2]epa_ghgi_2022!H10</f>
+        <v>0.16652</v>
+      </c>
+      <c r="I10">
+        <f>[2]epa_ghgi_2022!I10</f>
+        <v>1.07891E-3</v>
+      </c>
+      <c r="J10">
+        <f>[2]epa_ghgi_2022!J10</f>
+        <v>2.0542799999999999E-3</v>
+      </c>
+      <c r="K10">
+        <f>[2]epa_ghgi_2022!K10</f>
+        <v>0.72086680999999997</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>6.4211560000000001E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>2.7728910400000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>[2]epa_ghgi_2022!A11</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B11" t="str">
+        <f>[2]epa_ghgi_2022!B11</f>
+        <v>rice</v>
+      </c>
+      <c r="C11">
+        <f>[2]epa_ghgi_2022!C11</f>
+        <v>15.1</v>
+      </c>
+      <c r="D11">
+        <f>[2]epa_ghgi_2022!D11</f>
+        <v>0.75</v>
+      </c>
+      <c r="E11">
+        <f>[2]epa_ghgi_2022!E11</f>
+        <v>0.75</v>
+      </c>
+      <c r="F11">
+        <f>[2]epa_ghgi_2022!F11</f>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="G11">
+        <f>[2]epa_ghgi_2022!G11</f>
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H11">
+        <f>[2]epa_ghgi_2022!H11</f>
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="I11">
+        <f>[2]epa_ghgi_2022!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>[2]epa_ghgi_2022!J11</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>[2]epa_ghgi_2022!K11</f>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.205209</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0.205209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>[2]epa_ghgi_2022!A12</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B12" t="str">
+        <f>[2]epa_ghgi_2022!B12</f>
+        <v>stationary_combustion</v>
+      </c>
+      <c r="C12">
+        <f>[2]epa_ghgi_2022!C12</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D12">
+        <f>[2]epa_ghgi_2022!D12</f>
+        <v>0.34</v>
+      </c>
+      <c r="E12">
+        <f>[2]epa_ghgi_2022!E12</f>
+        <v>1.25</v>
+      </c>
+      <c r="F12">
+        <f>[2]epa_ghgi_2022!F12</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G12">
+        <f>[2]epa_ghgi_2022!G12</f>
+        <v>0.11967999999999999</v>
+      </c>
+      <c r="H12">
+        <f>[2]epa_ghgi_2022!H12</f>
+        <v>0.44</v>
+      </c>
+      <c r="I12">
+        <f>[2]epa_ghgi_2022!I12</f>
+        <v>2.57479E-3</v>
+      </c>
+      <c r="J12">
+        <f>[2]epa_ghgi_2022!J12</f>
+        <v>1.2066999999999999E-4</v>
+      </c>
+      <c r="K12">
+        <f>[2]epa_ghgi_2022!K12</f>
+        <v>0.34930454</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1.4323302399999998E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0.19359999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>[2]epa_ghgi_2022!A13</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B13" t="str">
+        <f>[2]epa_ghgi_2022!B13</f>
+        <v>mobile_combustion</v>
+      </c>
+      <c r="C13">
+        <f>[2]epa_ghgi_2022!C13</f>
+        <v>2.5</v>
+      </c>
+      <c r="D13">
+        <f>[2]epa_ghgi_2022!D13</f>
+        <v>0.08</v>
+      </c>
+      <c r="E13">
+        <f>[2]epa_ghgi_2022!E13</f>
+        <v>0.24</v>
+      </c>
+      <c r="F13">
+        <f>[2]epa_ghgi_2022!F13</f>
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <f>[2]epa_ghgi_2022!G13</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H13">
+        <f>[2]epa_ghgi_2022!H13</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="I13">
+        <f>[2]epa_ghgi_2022!I13</f>
+        <v>3.7681999999999999E-4</v>
+      </c>
+      <c r="J13">
+        <f>[2]epa_ghgi_2022!J13</f>
+        <v>7.0629000000000004E-4</v>
+      </c>
+      <c r="K13">
+        <f>[2]epa_ghgi_2022!K13</f>
+        <v>9.8916889999999993E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>5.7600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>[2]epa_ghgi_2022!A14</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B14" t="str">
+        <f>[2]epa_ghgi_2022!B14</f>
+        <v>field_burning</v>
+      </c>
+      <c r="C14">
+        <f>[2]epa_ghgi_2022!C14</f>
+        <v>0.4</v>
+      </c>
+      <c r="D14">
+        <f>[2]epa_ghgi_2022!D14</f>
+        <v>0.18</v>
+      </c>
+      <c r="E14">
+        <f>[2]epa_ghgi_2022!E14</f>
+        <v>0.18</v>
+      </c>
+      <c r="F14">
+        <f>[2]epa_ghgi_2022!F14</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="G14">
+        <f>[2]epa_ghgi_2022!G14</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="H14">
+        <f>[2]epa_ghgi_2022!H14</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="I14">
+        <f>[2]epa_ghgi_2022!I14</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>[2]epa_ghgi_2022!J14</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>[2]epa_ghgi_2022!K14</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>8.2944000000000014E-6</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>8.2944000000000014E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>[2]epa_ghgi_2022!A15</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B15" t="str">
+        <f>[2]epa_ghgi_2022!B15</f>
+        <v>petrochemical_production</v>
+      </c>
+      <c r="C15">
+        <f>[2]epa_ghgi_2022!C15</f>
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <f>[2]epa_ghgi_2022!D15</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E15">
+        <f>[2]epa_ghgi_2022!E15</f>
+        <v>0.46</v>
+      </c>
+      <c r="F15">
+        <f>[2]epa_ghgi_2022!F15</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="G15">
+        <f>[2]epa_ghgi_2022!G15</f>
+        <v>6.8399999999999997E-3</v>
+      </c>
+      <c r="H15">
+        <f>[2]epa_ghgi_2022!H15</f>
+        <v>5.5199999999999997E-3</v>
+      </c>
+      <c r="I15">
+        <f>[2]epa_ghgi_2022!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>[2]epa_ghgi_2022!J15</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>[2]epa_ghgi_2022!K15</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>4.6785599999999995E-5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>3.0470399999999995E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>[2]epa_ghgi_2022!A16</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B16" t="str">
+        <f>[2]epa_ghgi_2022!B16</f>
+        <v>anaroebic_digestion</v>
+      </c>
+      <c r="C16">
+        <f>[2]epa_ghgi_2022!C16</f>
+        <v>0.2</v>
+      </c>
+      <c r="D16">
+        <f>[2]epa_ghgi_2022!D16</f>
+        <v>0.54</v>
+      </c>
+      <c r="E16">
+        <f>[2]epa_ghgi_2022!E16</f>
+        <v>0.54</v>
+      </c>
+      <c r="F16">
+        <f>[2]epa_ghgi_2022!F16</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G16">
+        <f>[2]epa_ghgi_2022!G16</f>
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="H16">
+        <f>[2]epa_ghgi_2022!H16</f>
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="I16">
+        <f>[2]epa_ghgi_2022!I16</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>[2]epa_ghgi_2022!J16</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>[2]epa_ghgi_2022!K16</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1.8662399999999999E-5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>1.8662399999999999E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>[2]epa_ghgi_2022!A17</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B17" t="str">
+        <f>[2]epa_ghgi_2022!B17</f>
+        <v>composting</v>
+      </c>
+      <c r="C17">
+        <f>[2]epa_ghgi_2022!C17</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D17">
+        <f>[2]epa_ghgi_2022!D17</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E17">
+        <f>[2]epa_ghgi_2022!E17</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F17">
+        <f>[2]epa_ghgi_2022!F17</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G17">
+        <f>[2]epa_ghgi_2022!G17</f>
+        <v>5.3359999999999998E-2</v>
+      </c>
+      <c r="H17">
+        <f>[2]epa_ghgi_2022!H17</f>
+        <v>5.3359999999999998E-2</v>
+      </c>
+      <c r="I17">
+        <f>[2]epa_ghgi_2022!I17</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>[2]epa_ghgi_2022!J17</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>[2]epa_ghgi_2022!K17</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>2.8472895999999996E-3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>2.8472895999999996E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589868AA-5A05-C94B-A407-CB8788A01811}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <f>SUMIF(raw_epa!$A$2:$A$17,$A2, raw_epa!K$2:K$17)</f>
+        <v>9.3799147410000003</v>
+      </c>
+      <c r="C2">
+        <f>B2-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A2, raw_epa!L$2:L$17))</f>
+        <v>8.5584502380541938</v>
+      </c>
+      <c r="D2">
+        <f>B2+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A2, raw_epa!M$2:M$17))</f>
+        <v>10.226498180478945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>SUMIF(raw_epa!$A$2:$A$17,$A3, raw_epa!K$2:K$17)</f>
+        <v>8.7380434769999997</v>
+      </c>
+      <c r="C3">
+        <f>B3-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A3, raw_epa!L$2:L$17))</f>
+        <v>7.3979124625092521</v>
+      </c>
+      <c r="D3">
+        <f>B3+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A3, raw_epa!M$2:M$17))</f>
+        <v>10.190241424939606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f>SUMIF(raw_epa!$A$2:$A$17,$A4, raw_epa!K$2:K$17)</f>
+        <v>2.13145183</v>
+      </c>
+      <c r="C4">
+        <f>B4-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A4, raw_epa!L$2:L$17))</f>
+        <v>1.9530878874555497</v>
+      </c>
+      <c r="D4">
+        <f>B4+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A4, raw_epa!M$2:M$17))</f>
+        <v>2.4572094429578555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>SUMIF(raw_epa!$A$2:$A$17,$A5, raw_epa!K$2:K$17)</f>
+        <v>4.5111922399999997</v>
+      </c>
+      <c r="C5">
+        <f>B5-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A5, raw_epa!L$2:L$17))</f>
+        <v>3.4660722399999999</v>
+      </c>
+      <c r="D5">
+        <f>B5+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A5, raw_epa!M$2:M$17))</f>
+        <v>5.5108722399999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <f>SUMIF(raw_epa!$A$2:$A$17,$A6, raw_epa!K$2:K$17)</f>
+        <v>0.72086680999999997</v>
+      </c>
+      <c r="C6">
+        <f>B6-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A6, raw_epa!L$2:L$17))</f>
+        <v>0.46746680999999995</v>
+      </c>
+      <c r="D6">
+        <f>B6+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A6, raw_epa!M$2:M$17))</f>
+        <v>0.88738680999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <f>SUMIF(raw_epa!$A$2:$A$17,$A7, raw_epa!K$2:K$17)</f>
+        <v>1.18022143</v>
+      </c>
+      <c r="C7">
+        <f>B7-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A7, raw_epa!L$2:L$17))</f>
+        <v>0.70850399932778074</v>
+      </c>
+      <c r="D7">
+        <f>B7+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A7, raw_epa!M$2:M$17))</f>
+        <v>1.8144845589930072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585A23CA-05DC-D643-A3BC-0FB53FCF30E6}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="165" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2854,44 +4540,43 @@
         <v>7</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6">
         <f>SUM(C3,C10)</f>
-        <v>36.468935248597631</v>
+        <v>34.456306977934332</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6">
-        <f>SUM(C4:C9)</f>
-        <v>28.712628270663306</v>
+        <v>26.7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2899,11 +4584,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="15">
-        <f>VLOOKUP(CONCATENATE("prior_", LOWER(B4)),raw!A:F, 2, FALSE)</f>
-        <v>9.1751600585821596</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B4,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B4,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B4,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>9.4 (8.6 - 10.2)</v>
       </c>
       <c r="D4" s="16" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B4), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B4), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B4), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
@@ -2923,11 +4608,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="32">
-        <f>VLOOKUP(CONCATENATE("prior_", LOWER(B5)),raw!A:F, 2, FALSE)</f>
-        <v>9.4217442477763491</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="32" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B5,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B5,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B5,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>8.7 (7.4 - 10.2)</v>
       </c>
       <c r="D5" s="33" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B5), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B5), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B5), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
@@ -2947,11 +4632,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11">
-        <f>VLOOKUP(CONCATENATE("prior_", LOWER(B6)),raw!A:F, 2, FALSE)</f>
-        <v>2.8941541922983198</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B6,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B6,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B6,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>2.1 (2.0 - 2.5)</v>
       </c>
       <c r="D6" s="12" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B6), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B6), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B6), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
@@ -2971,11 +4656,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="32">
-        <f>VLOOKUP(CONCATENATE("prior_", LOWER(B7)),raw!A:F, 2, FALSE)</f>
-        <v>5.6512483122710799</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="32" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B7,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B7,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B7,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>4.5 (3.5 - 5.5)</v>
       </c>
       <c r="D7" s="33" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B7), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B7), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B7), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
@@ -2995,11 +4680,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11">
-        <f>VLOOKUP(CONCATENATE("prior_", LOWER(B8)),raw!A:F, 2, FALSE)</f>
-        <v>0.634853586640719</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B8,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B8,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B8,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>0.7 (0.5 - 0.9)</v>
       </c>
       <c r="D8" s="12" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B8), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B8), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B8), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
@@ -3016,14 +4701,14 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="32">
-        <f>VLOOKUP(CONCATENATE("prior_", LOWER(B9)),raw!A:F, 2, FALSE)</f>
-        <v>0.93546787309467605</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="32" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B9,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B9,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B9,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>1.2 (0.7 - 1.8)</v>
       </c>
       <c r="D9" s="33" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B9), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B9), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B9), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
@@ -3040,7 +4725,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6">
@@ -3048,11 +4733,11 @@
         <v>7.7563069779343294</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3060,7 +4745,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="15">
         <f>VLOOKUP(CONCATENATE("prior_", LOWER(B11)),raw!A:F, 2, FALSE)</f>
@@ -3081,10 +4766,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="25">
         <f>VLOOKUP(CONCATENATE("prior_", LOWER(B12)),raw!A:F, 2, FALSE)</f>

--- a/paper/sectors.xlsx
+++ b/paper/sectors.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahnesser/Documents/Harvard/Research/TROPOMI_Inversion/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A030C93C-B04E-8B47-B40F-D59B7B290F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4895C476-B519-9948-8AA3-D83CFB52F427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20300" activeTab="3" xr2:uid="{95ADAA5D-9913-4C42-80C5-C44B6108DEC1}"/>
+    <workbookView xWindow="15600" yWindow="460" windowWidth="22740" windowHeight="20540" activeTab="5" xr2:uid="{95ADAA5D-9913-4C42-80C5-C44B6108DEC1}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="raw_epa" sheetId="3" r:id="rId2"/>
-    <sheet name="epa" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="raw_epa22" sheetId="3" r:id="rId2"/>
+    <sheet name="epa22" sheetId="4" r:id="rId3"/>
+    <sheet name="raw_epa23" sheetId="5" r:id="rId4"/>
+    <sheet name="epa23" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,10 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
-  <si>
-    <t>Prior</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Livestock</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Wetlands</t>
-  </si>
-  <si>
-    <t>Posterior</t>
   </si>
   <si>
     <t>ong</t>
@@ -132,9 +129,6 @@
     <t>Natural sources</t>
   </si>
   <si>
-    <t>Total sources [Tg a-1]</t>
-  </si>
-  <si>
     <t>30.9 (30.0 - 31.8)</t>
   </si>
   <si>
@@ -170,15 +164,28 @@
   <si>
     <t>Sensitivity</t>
   </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Inventory emissions</t>
+  </si>
+  <si>
+    <t>Posterior emissions</t>
+  </si>
+  <si>
+    <t>Total sources (Tg a-1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +206,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -448,11 +462,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -499,10 +680,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -512,17 +689,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -531,12 +702,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -546,9 +711,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,7 +831,7 @@
             <v>prior_ong</v>
           </cell>
           <cell r="B3">
-            <v>9.4217442477763491</v>
+            <v>9.4217441570790292</v>
           </cell>
           <cell r="C3">
             <v>0</v>
@@ -705,7 +935,7 @@
             <v>1.0870001634355999</v>
           </cell>
           <cell r="D10">
-            <v>0.98416779938961996</v>
+            <v>0.98416779938961896</v>
           </cell>
         </row>
         <row r="11">
@@ -713,13 +943,13 @@
             <v>prior_sub_ong</v>
           </cell>
           <cell r="B11">
-            <v>8.2884443378367596</v>
+            <v>8.2884442491299009</v>
           </cell>
           <cell r="C11">
-            <v>0.410217230626305</v>
+            <v>0.41021722989939602</v>
           </cell>
           <cell r="D11">
-            <v>0.357910410827459</v>
+            <v>0.35791041014463598</v>
           </cell>
         </row>
         <row r="12">
@@ -761,7 +991,7 @@
             <v>6.8121657967815497E-2</v>
           </cell>
           <cell r="D14">
-            <v>5.1432060983418702E-2</v>
+            <v>5.1432060983418897E-2</v>
           </cell>
         </row>
         <row r="15">
@@ -825,13 +1055,13 @@
             <v>post_ong</v>
           </cell>
           <cell r="B19">
-            <v>10.410589611692799</v>
+            <v>10.410589499475099</v>
           </cell>
           <cell r="C19">
-            <v>0.262654789674787</v>
+            <v>0.26265478156403699</v>
           </cell>
           <cell r="D19">
-            <v>0.28297075575483299</v>
+            <v>0.28297074745584999</v>
           </cell>
         </row>
         <row r="20">
@@ -870,10 +1100,10 @@
             <v>0.62164068658730298</v>
           </cell>
           <cell r="C22">
-            <v>0.12958863671848</v>
+            <v>0.129588636718481</v>
           </cell>
           <cell r="D22">
-            <v>8.7392722509704798E-2</v>
+            <v>8.7392722509704701E-2</v>
           </cell>
         </row>
         <row r="23">
@@ -887,7 +1117,7 @@
             <v>6.2755852480630203E-2</v>
           </cell>
           <cell r="D23">
-            <v>6.7811804558369507E-2</v>
+            <v>6.7811804558369895E-2</v>
           </cell>
         </row>
         <row r="24">
@@ -912,10 +1142,10 @@
             <v>1.1688477229929899</v>
           </cell>
           <cell r="C25">
-            <v>1.2692376210682E-2</v>
+            <v>1.26923762106818E-2</v>
           </cell>
           <cell r="D25">
-            <v>1.49272708058101E-2</v>
+            <v>1.49272708058103E-2</v>
           </cell>
         </row>
         <row r="26">
@@ -937,13 +1167,13 @@
             <v>post_sub_ong</v>
           </cell>
           <cell r="B27">
-            <v>9.2772897017532099</v>
+            <v>9.2772895915259994</v>
           </cell>
           <cell r="C27">
-            <v>0.672263660799854</v>
+            <v>0.67226365196220195</v>
           </cell>
           <cell r="D27">
-            <v>0.64088116658229299</v>
+            <v>0.64088115760048703</v>
           </cell>
         </row>
         <row r="28">
@@ -982,10 +1212,10 @@
             <v>0.50474323471834803</v>
           </cell>
           <cell r="C30">
-            <v>7.8156575735062198E-2</v>
+            <v>7.8156575735062295E-2</v>
           </cell>
           <cell r="D30">
-            <v>3.5459187088264399E-2</v>
+            <v>3.5459187088264503E-2</v>
           </cell>
         </row>
         <row r="31">
@@ -1010,7 +1240,7 @@
             <v>4.2684925921543897</v>
           </cell>
           <cell r="C32">
-            <v>1.43781281481942</v>
+            <v>1.43781281481943</v>
           </cell>
           <cell r="D32">
             <v>1.1807217514466299</v>
@@ -1090,25 +1320,25 @@
             <v>176.1</v>
           </cell>
           <cell r="D2">
-            <v>0.1</v>
+            <v>0.11</v>
           </cell>
           <cell r="E2">
-            <v>0.1</v>
+            <v>0.18</v>
           </cell>
           <cell r="F2">
             <v>7.0439999999999996</v>
           </cell>
           <cell r="G2">
-            <v>0.70440000000000003</v>
+            <v>0.77483999999999997</v>
           </cell>
           <cell r="H2">
-            <v>0.70440000000000003</v>
+            <v>1.2679199999999999</v>
           </cell>
           <cell r="I2">
-            <v>1.3408820105E-3</v>
+            <v>1.3408820000000001E-3</v>
           </cell>
           <cell r="J2">
-            <v>1.0180721213799999E-2</v>
+            <v>1.0180721E-2</v>
           </cell>
           <cell r="K2">
             <v>7.0324783999999996</v>
@@ -1134,16 +1364,16 @@
             <v>2.3479999999999999</v>
           </cell>
           <cell r="G3">
-            <v>0.42264000000000002</v>
+            <v>0.42263999999999996</v>
           </cell>
           <cell r="H3">
             <v>0.46960000000000002</v>
           </cell>
           <cell r="I3">
-            <v>2.8038590000000002E-5</v>
+            <v>2.8E-5</v>
           </cell>
           <cell r="J3">
-            <v>5.3562152959999994E-4</v>
+            <v>5.3562200000000003E-4</v>
           </cell>
           <cell r="K3">
             <v>2.3474363409999999</v>
@@ -1169,10 +1399,10 @@
             <v>6.8879999999999999</v>
           </cell>
           <cell r="G4">
-            <v>1.2398400000000001</v>
+            <v>1.2398399999999998</v>
           </cell>
           <cell r="H4">
-            <v>1.2398400000000001</v>
+            <v>1.2398399999999998</v>
           </cell>
           <cell r="I4">
             <v>1.8473119999999999E-2</v>
@@ -1204,10 +1434,10 @@
             <v>0.28000000000000003</v>
           </cell>
           <cell r="G5">
-            <v>0.2324</v>
+            <v>0.23240000000000002</v>
           </cell>
           <cell r="H5">
-            <v>0.55159999999999998</v>
+            <v>0.55160000000000009</v>
           </cell>
           <cell r="I5">
             <v>2.0330000000000001E-4</v>
@@ -1239,7 +1469,7 @@
             <v>1.6160000000000001</v>
           </cell>
           <cell r="G6">
-            <v>0.45247999999999999</v>
+            <v>0.45248000000000005</v>
           </cell>
           <cell r="H6">
             <v>0.51712000000000002</v>
@@ -1277,7 +1507,7 @@
             <v>1.04512</v>
           </cell>
           <cell r="H7">
-            <v>0.99968000000000001</v>
+            <v>0.9996799999999999</v>
           </cell>
           <cell r="I7">
             <v>1.921227E-2</v>
@@ -1379,7 +1609,7 @@
             <v>0.72399999999999998</v>
           </cell>
           <cell r="G10">
-            <v>0.25340000000000001</v>
+            <v>0.25339999999999996</v>
           </cell>
           <cell r="H10">
             <v>0.16652</v>
@@ -1414,10 +1644,10 @@
             <v>0.60399999999999998</v>
           </cell>
           <cell r="G11">
-            <v>0.45300000000000001</v>
+            <v>0.45299999999999996</v>
           </cell>
           <cell r="H11">
-            <v>0.45300000000000001</v>
+            <v>0.45299999999999996</v>
           </cell>
           <cell r="I11">
             <v>0</v>
@@ -1452,7 +1682,7 @@
             <v>0.11967999999999999</v>
           </cell>
           <cell r="H12">
-            <v>0.44</v>
+            <v>0.43999999999999995</v>
           </cell>
           <cell r="I12">
             <v>2.57479E-3</v>
@@ -1519,10 +1749,10 @@
             <v>1.6E-2</v>
           </cell>
           <cell r="G14">
-            <v>2.8800000000000002E-3</v>
+            <v>2.8799999999999997E-3</v>
           </cell>
           <cell r="H14">
-            <v>2.8800000000000002E-3</v>
+            <v>2.8799999999999997E-3</v>
           </cell>
           <cell r="I14">
             <v>0</v>
@@ -1557,7 +1787,7 @@
             <v>6.8399999999999997E-3</v>
           </cell>
           <cell r="H15">
-            <v>5.5199999999999997E-3</v>
+            <v>5.5200000000000006E-3</v>
           </cell>
           <cell r="I15">
             <v>0</v>
@@ -1637,6 +1867,768 @@
           </cell>
           <cell r="K17">
             <v>9.1999999999999998E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="epa_ghgi_2023"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>sector</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>subsector</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>mean_MMTCO2</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>minus_MMTCO2</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>plus_MMTCO2</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>mean_MMTCO2_2022</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>mean_all</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>minus</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>plus</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>AK_2022</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>AK_2023</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>HI_2022</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>HI_2023</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>mean</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>livestock</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>enteric_fermentation</v>
+          </cell>
+          <cell r="C2">
+            <v>197.3</v>
+          </cell>
+          <cell r="D2">
+            <v>21.703000000000003</v>
+          </cell>
+          <cell r="E2">
+            <v>35.514000000000003</v>
+          </cell>
+          <cell r="F2">
+            <v>176.1</v>
+          </cell>
+          <cell r="G2">
+            <v>7.0464285709999999</v>
+          </cell>
+          <cell r="H2">
+            <v>0.77510714285714299</v>
+          </cell>
+          <cell r="I2">
+            <v>1.268357142857143</v>
+          </cell>
+          <cell r="J2">
+            <v>1.3408820000000001E-3</v>
+          </cell>
+          <cell r="K2">
+            <v>1.5023059999999999E-3</v>
+          </cell>
+          <cell r="L2">
+            <v>1.0180721E-2</v>
+          </cell>
+          <cell r="M2">
+            <v>1.1406339E-2</v>
+          </cell>
+          <cell r="N2">
+            <v>7.0335199270000004</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>livestock</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>manure_management</v>
+          </cell>
+          <cell r="C3">
+            <v>65.7</v>
+          </cell>
+          <cell r="D3">
+            <v>11.826000000000001</v>
+          </cell>
+          <cell r="E3">
+            <v>13.14</v>
+          </cell>
+          <cell r="F3">
+            <v>58.7</v>
+          </cell>
+          <cell r="G3">
+            <v>2.3464285710000001</v>
+          </cell>
+          <cell r="H3">
+            <v>0.42235714285714288</v>
+          </cell>
+          <cell r="I3">
+            <v>0.46928571428571431</v>
+          </cell>
+          <cell r="J3">
+            <v>2.8E-5</v>
+          </cell>
+          <cell r="K3">
+            <v>3.1300000000000002E-5</v>
+          </cell>
+          <cell r="L3">
+            <v>5.3562200000000003E-4</v>
+          </cell>
+          <cell r="M3">
+            <v>5.9949500000000002E-4</v>
+          </cell>
+          <cell r="N3">
+            <v>2.3457977369999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>ong</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>natural_gas_systems</v>
+          </cell>
+          <cell r="C4">
+            <v>193.6</v>
+          </cell>
+          <cell r="D4">
+            <v>32.911999999999999</v>
+          </cell>
+          <cell r="E4">
+            <v>32.911999999999999</v>
+          </cell>
+          <cell r="F4">
+            <v>172.2</v>
+          </cell>
+          <cell r="G4">
+            <v>6.914285714</v>
+          </cell>
+          <cell r="H4">
+            <v>1.1754285714285715</v>
+          </cell>
+          <cell r="I4">
+            <v>1.1754285714285715</v>
+          </cell>
+          <cell r="J4">
+            <v>1.8473119999999999E-2</v>
+          </cell>
+          <cell r="K4">
+            <v>2.0768849999999998E-2</v>
+          </cell>
+          <cell r="L4">
+            <v>5.7967999999999995E-4</v>
+          </cell>
+          <cell r="M4">
+            <v>6.5171900000000004E-4</v>
+          </cell>
+          <cell r="N4">
+            <v>6.892865145</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ong</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>abandoned_wells</v>
+          </cell>
+          <cell r="C5">
+            <v>8.3000000000000007</v>
+          </cell>
+          <cell r="D5">
+            <v>6.9720000000000004</v>
+          </cell>
+          <cell r="E5">
+            <v>14.940000000000001</v>
+          </cell>
+          <cell r="F5">
+            <v>7</v>
+          </cell>
+          <cell r="G5">
+            <v>0.29642857099999997</v>
+          </cell>
+          <cell r="H5">
+            <v>0.24900000000000003</v>
+          </cell>
+          <cell r="I5">
+            <v>0.53357142857142859</v>
+          </cell>
+          <cell r="J5">
+            <v>2.0330000000000001E-4</v>
+          </cell>
+          <cell r="K5">
+            <v>2.4105599999999999E-4</v>
+          </cell>
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+          <cell r="M5">
+            <v>0</v>
+          </cell>
+          <cell r="N5">
+            <v>0.29618751599999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>ong</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>petroleum_systems</v>
+          </cell>
+          <cell r="C6">
+            <v>59.9</v>
+          </cell>
+          <cell r="D6">
+            <v>5.99</v>
+          </cell>
+          <cell r="E6">
+            <v>8.9849999999999994</v>
+          </cell>
+          <cell r="F6">
+            <v>40.4</v>
+          </cell>
+          <cell r="G6">
+            <v>2.1392857140000001</v>
+          </cell>
+          <cell r="H6">
+            <v>0.21392857142857144</v>
+          </cell>
+          <cell r="I6">
+            <v>0.32089285714285715</v>
+          </cell>
+          <cell r="J6">
+            <v>2.667282E-2</v>
+          </cell>
+          <cell r="K6">
+            <v>3.9547077E-2</v>
+          </cell>
+          <cell r="L6">
+            <v>2.7603E-5</v>
+          </cell>
+          <cell r="M6">
+            <v>4.0926200000000001E-5</v>
+          </cell>
+          <cell r="N6">
+            <v>2.0996977110000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>landfills</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>landfills</v>
+          </cell>
+          <cell r="C7">
+            <v>129</v>
+          </cell>
+          <cell r="D7">
+            <v>24.51</v>
+          </cell>
+          <cell r="E7">
+            <v>33.54</v>
+          </cell>
+          <cell r="F7">
+            <v>113.6</v>
+          </cell>
+          <cell r="G7">
+            <v>4.6071428570000004</v>
+          </cell>
+          <cell r="H7">
+            <v>0.87535714285714294</v>
+          </cell>
+          <cell r="I7">
+            <v>1.1978571428571427</v>
+          </cell>
+          <cell r="J7">
+            <v>1.921227E-2</v>
+          </cell>
+          <cell r="K7">
+            <v>2.1816749999999999E-2</v>
+          </cell>
+          <cell r="L7">
+            <v>1.359549E-2</v>
+          </cell>
+          <cell r="M7">
+            <v>1.5438541E-2</v>
+          </cell>
+          <cell r="N7">
+            <v>4.5698875660000002</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>coal</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>coal_mining</v>
+          </cell>
+          <cell r="C8">
+            <v>53</v>
+          </cell>
+          <cell r="D8">
+            <v>5.3000000000000007</v>
+          </cell>
+          <cell r="E8">
+            <v>11.129999999999999</v>
+          </cell>
+          <cell r="F8">
+            <v>47.4</v>
+          </cell>
+          <cell r="G8">
+            <v>1.8928571430000001</v>
+          </cell>
+          <cell r="H8">
+            <v>0.18928571428571431</v>
+          </cell>
+          <cell r="I8">
+            <v>0.39749999999999996</v>
+          </cell>
+          <cell r="J8">
+            <v>5.4816999999999995E-4</v>
+          </cell>
+          <cell r="K8">
+            <v>6.1293299999999997E-4</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+          <cell r="N8">
+            <v>1.8922442100000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>coal</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>abandoned_coal</v>
+          </cell>
+          <cell r="C9">
+            <v>6.6</v>
+          </cell>
+          <cell r="D9">
+            <v>1.452</v>
+          </cell>
+          <cell r="E9">
+            <v>1.3859999999999999</v>
+          </cell>
+          <cell r="F9">
+            <v>5.9</v>
+          </cell>
+          <cell r="G9">
+            <v>0.235714286</v>
+          </cell>
+          <cell r="H9">
+            <v>5.1857142857142859E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>4.9499999999999995E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+          <cell r="N9">
+            <v>0.235714286</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>wastewater</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>wastewater</v>
+          </cell>
+          <cell r="C10">
+            <v>21.2</v>
+          </cell>
+          <cell r="D10">
+            <v>6.1479999999999997</v>
+          </cell>
+          <cell r="E10">
+            <v>6.7839999999999998</v>
+          </cell>
+          <cell r="F10">
+            <v>18.100000000000001</v>
+          </cell>
+          <cell r="G10">
+            <v>0.75714285699999995</v>
+          </cell>
+          <cell r="H10">
+            <v>0.21957142857142856</v>
+          </cell>
+          <cell r="I10">
+            <v>0.24228571428571427</v>
+          </cell>
+          <cell r="J10">
+            <v>1.07891E-3</v>
+          </cell>
+          <cell r="K10">
+            <v>1.2636959999999999E-3</v>
+          </cell>
+          <cell r="L10">
+            <v>2.0542799999999999E-3</v>
+          </cell>
+          <cell r="M10">
+            <v>2.4061180000000001E-3</v>
+          </cell>
+          <cell r="N10">
+            <v>0.75347304299999995</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>rice</v>
+          </cell>
+          <cell r="C11">
+            <v>16.899999999999999</v>
+          </cell>
+          <cell r="D11">
+            <v>12.674999999999999</v>
+          </cell>
+          <cell r="E11">
+            <v>12.674999999999999</v>
+          </cell>
+          <cell r="F11">
+            <v>15.1</v>
+          </cell>
+          <cell r="G11">
+            <v>0.60357142900000005</v>
+          </cell>
+          <cell r="H11">
+            <v>0.45267857142857137</v>
+          </cell>
+          <cell r="I11">
+            <v>0.45267857142857137</v>
+          </cell>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
+          <cell r="K11">
+            <v>0</v>
+          </cell>
+          <cell r="L11">
+            <v>0</v>
+          </cell>
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+          <cell r="N11">
+            <v>0.60357142900000005</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>stationary_combustion</v>
+          </cell>
+          <cell r="C12">
+            <v>9.8000000000000007</v>
+          </cell>
+          <cell r="D12">
+            <v>3.3320000000000003</v>
+          </cell>
+          <cell r="E12">
+            <v>12.446000000000002</v>
+          </cell>
+          <cell r="F12">
+            <v>8.8000000000000007</v>
+          </cell>
+          <cell r="G12">
+            <v>0.35</v>
+          </cell>
+          <cell r="H12">
+            <v>0.11900000000000001</v>
+          </cell>
+          <cell r="I12">
+            <v>0.44450000000000006</v>
+          </cell>
+          <cell r="J12">
+            <v>2.57479E-3</v>
+          </cell>
+          <cell r="K12">
+            <v>2.8673800000000001E-3</v>
+          </cell>
+          <cell r="L12">
+            <v>1.2066999999999999E-4</v>
+          </cell>
+          <cell r="M12">
+            <v>1.3438299999999999E-4</v>
+          </cell>
+          <cell r="N12">
+            <v>0.34699823800000001</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>mobile_combustion</v>
+          </cell>
+          <cell r="C13">
+            <v>2.9</v>
+          </cell>
+          <cell r="D13">
+            <v>0.11599999999999999</v>
+          </cell>
+          <cell r="E13">
+            <v>0.84099999999999997</v>
+          </cell>
+          <cell r="F13">
+            <v>2.5</v>
+          </cell>
+          <cell r="G13">
+            <v>0.10357142900000001</v>
+          </cell>
+          <cell r="H13">
+            <v>4.1428571428571426E-3</v>
+          </cell>
+          <cell r="I13">
+            <v>3.0035714285714284E-2</v>
+          </cell>
+          <cell r="J13">
+            <v>3.7681999999999999E-4</v>
+          </cell>
+          <cell r="K13">
+            <v>4.3711100000000001E-4</v>
+          </cell>
+          <cell r="L13">
+            <v>7.0629000000000004E-4</v>
+          </cell>
+          <cell r="M13">
+            <v>8.1929599999999996E-4</v>
+          </cell>
+          <cell r="N13">
+            <v>0.10231502100000001</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>field_burning</v>
+          </cell>
+          <cell r="C14">
+            <v>0.5</v>
+          </cell>
+          <cell r="D14">
+            <v>0.08</v>
+          </cell>
+          <cell r="E14">
+            <v>0.08</v>
+          </cell>
+          <cell r="F14">
+            <v>0.4</v>
+          </cell>
+          <cell r="G14">
+            <v>1.7857142999999999E-2</v>
+          </cell>
+          <cell r="H14">
+            <v>2.8571428571428571E-3</v>
+          </cell>
+          <cell r="I14">
+            <v>2.8571428571428571E-3</v>
+          </cell>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
+          <cell r="K14">
+            <v>0</v>
+          </cell>
+          <cell r="L14">
+            <v>0</v>
+          </cell>
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+          <cell r="N14">
+            <v>1.7857142999999999E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>petrochemical_production</v>
+          </cell>
+          <cell r="C15">
+            <v>0.4</v>
+          </cell>
+          <cell r="D15">
+            <v>0.23199999999999998</v>
+          </cell>
+          <cell r="E15">
+            <v>0.192</v>
+          </cell>
+          <cell r="F15">
+            <v>0.3</v>
+          </cell>
+          <cell r="G15">
+            <v>1.4285714E-2</v>
+          </cell>
+          <cell r="H15">
+            <v>8.2857142857142851E-3</v>
+          </cell>
+          <cell r="I15">
+            <v>6.8571428571428577E-3</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
+          </cell>
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+          <cell r="N15">
+            <v>1.4285714E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>anaroebic_digestion</v>
+          </cell>
+          <cell r="C16">
+            <v>0.2</v>
+          </cell>
+          <cell r="D16">
+            <v>0.10800000000000001</v>
+          </cell>
+          <cell r="E16">
+            <v>0.10800000000000001</v>
+          </cell>
+          <cell r="F16">
+            <v>0.2</v>
+          </cell>
+          <cell r="G16">
+            <v>7.1428569999999999E-3</v>
+          </cell>
+          <cell r="H16">
+            <v>3.8571428571428576E-3</v>
+          </cell>
+          <cell r="I16">
+            <v>3.8571428571428576E-3</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+          <cell r="K16">
+            <v>0</v>
+          </cell>
+          <cell r="L16">
+            <v>0</v>
+          </cell>
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+          <cell r="N16">
+            <v>7.1428569999999999E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>other_anth</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>composting</v>
+          </cell>
+          <cell r="C17">
+            <v>2.5</v>
+          </cell>
+          <cell r="D17">
+            <v>1.45</v>
+          </cell>
+          <cell r="E17">
+            <v>1.45</v>
+          </cell>
+          <cell r="F17">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="G17">
+            <v>8.9285714000000002E-2</v>
+          </cell>
+          <cell r="H17">
+            <v>5.1785714285714282E-2</v>
+          </cell>
+          <cell r="I17">
+            <v>5.1785714285714282E-2</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
+          <cell r="L17">
+            <v>0</v>
+          </cell>
+          <cell r="M17">
+            <v>0</v>
+          </cell>
+          <cell r="N17">
+            <v>8.9285714000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1945,7 +2937,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,28 +2963,28 @@
         <v>max</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2046,7 +3038,7 @@
       </c>
       <c r="B3">
         <f>[1]CONUS!B3</f>
-        <v>9.4217442477763491</v>
+        <v>9.4217441570790292</v>
       </c>
       <c r="C3">
         <f>[1]CONUS!C3</f>
@@ -2058,11 +3050,11 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E29" si="0">B3-C3</f>
-        <v>9.4217442477763491</v>
+        <v>9.4217441570790292</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F29" si="1">B3+D3</f>
-        <v>9.4217442477763491</v>
+        <v>9.4217441570790292</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2362,7 +3354,7 @@
       </c>
       <c r="D10">
         <f>[1]CONUS!D10</f>
-        <v>0.98416779938961996</v>
+        <v>0.98416779938961896</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -2370,7 +3362,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>7.0038816864607494</v>
+        <v>7.0038816864607485</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2391,7 +3383,7 @@
       </c>
       <c r="L10" s="1">
         <f>F10/$B2</f>
-        <v>0.76335253464156583</v>
+        <v>0.76335253464156572</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2401,23 +3393,23 @@
       </c>
       <c r="B11">
         <f>[1]CONUS!B11</f>
-        <v>8.2884443378367596</v>
+        <v>8.2884442491299009</v>
       </c>
       <c r="C11">
         <f>[1]CONUS!C11</f>
-        <v>0.410217230626305</v>
+        <v>0.41021722989939602</v>
       </c>
       <c r="D11">
         <f>[1]CONUS!D11</f>
-        <v>0.357910410827459</v>
+        <v>0.35791041014463598</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>7.8782271072104546</v>
+        <v>7.8782270192305051</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>8.6463547486642192</v>
+        <v>8.6463546592745359</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2430,15 +3422,15 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ref="J11:J17" si="2">B11/$B3</f>
-        <v>0.87971442652913634</v>
+        <v>0.87971442558248381</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ref="K11:K17" si="3">E11/$B3</f>
-        <v>0.83617501176279707</v>
+        <v>0.83617501047416976</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ref="L11:L17" si="4">F11/$B3</f>
-        <v>0.91770212831927256</v>
+        <v>0.91770212766583092</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2550,7 +3542,7 @@
       </c>
       <c r="D14">
         <f>[1]CONUS!D14</f>
-        <v>5.1432060983418702E-2</v>
+        <v>5.1432060983418897E-2</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -2558,7 +3550,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.56938819575518274</v>
+        <v>0.56938819575518296</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2579,7 +3571,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>0.89688111989420816</v>
+        <v>0.89688111989420849</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2774,23 +3766,23 @@
       </c>
       <c r="B19">
         <f>[1]CONUS!B19</f>
-        <v>10.410589611692799</v>
+        <v>10.410589499475099</v>
       </c>
       <c r="C19">
         <f>[1]CONUS!C19</f>
-        <v>0.262654789674787</v>
+        <v>0.26265478156403699</v>
       </c>
       <c r="D19">
         <f>[1]CONUS!D19</f>
-        <v>0.28297075575483299</v>
+        <v>0.28297074745584999</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>10.147934822018012</v>
+        <v>10.147934717911063</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>10.693560367447633</v>
+        <v>10.69356024693095</v>
       </c>
       <c r="G19">
         <v>0.91457900000000003</v>
@@ -2910,19 +3902,19 @@
       </c>
       <c r="C22">
         <f>[1]CONUS!C22</f>
-        <v>0.12958863671848</v>
+        <v>0.129588636718481</v>
       </c>
       <c r="D22">
         <f>[1]CONUS!D22</f>
-        <v>8.7392722509704798E-2</v>
+        <v>8.7392722509704701E-2</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.492052049868823</v>
+        <v>0.49205204986882201</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.70903340909700774</v>
+        <v>0.70903340909700763</v>
       </c>
       <c r="G22">
         <v>0.32885399999999998</v>
@@ -2958,7 +3950,7 @@
       </c>
       <c r="D23">
         <f>[1]CONUS!D23</f>
-        <v>6.7811804558369507E-2</v>
+        <v>6.7811804558369895E-2</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
@@ -2966,7 +3958,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1.1740800711320496</v>
+        <v>1.17408007113205</v>
       </c>
       <c r="G23">
         <v>0.59388399999999997</v>
@@ -3042,19 +4034,19 @@
       </c>
       <c r="C25">
         <f>[1]CONUS!C25</f>
-        <v>1.2692376210682E-2</v>
+        <v>1.26923762106818E-2</v>
       </c>
       <c r="D25">
         <f>[1]CONUS!D25</f>
-        <v>1.49272708058101E-2</v>
+        <v>1.49272708058103E-2</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1.1561553467823078</v>
+        <v>1.156155346782308</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1.1837749937988</v>
+        <v>1.1837749937988002</v>
       </c>
       <c r="G25">
         <v>0.25346000000000002</v>
@@ -3129,23 +4121,23 @@
       </c>
       <c r="B27">
         <f>[1]CONUS!B27</f>
-        <v>9.2772897017532099</v>
+        <v>9.2772895915259994</v>
       </c>
       <c r="C27">
         <f>[1]CONUS!C27</f>
-        <v>0.672263660799854</v>
+        <v>0.67226365196220195</v>
       </c>
       <c r="D27">
         <f>[1]CONUS!D27</f>
-        <v>0.64088116658229299</v>
+        <v>0.64088115760048703</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>8.605026040953355</v>
+        <v>8.6050259395637969</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>9.918170868335503</v>
+        <v>9.918170749126487</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3158,15 +4150,15 @@
       </c>
       <c r="J27" s="1">
         <f>B27/$B19</f>
-        <v>0.89113969984306096</v>
+        <v>0.89113969886083388</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" ref="K27:L33" si="5">E27/$B19</f>
-        <v>0.82656471553623623</v>
+        <v>0.82656471470685322</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="5"/>
-        <v>0.95270020606669292</v>
+        <v>0.95270020488528151</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -3274,19 +4266,19 @@
       </c>
       <c r="C30">
         <f>[1]CONUS!C30</f>
-        <v>7.8156575735062198E-2</v>
+        <v>7.8156575735062295E-2</v>
       </c>
       <c r="D30">
         <f>[1]CONUS!D30</f>
-        <v>3.5459187088264399E-2</v>
+        <v>3.5459187088264503E-2</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30:E33" si="7">B30-C30</f>
-        <v>0.42658665898328585</v>
+        <v>0.42658665898328574</v>
       </c>
       <c r="F30">
         <f t="shared" ref="F30:F33" si="8">B30+D30</f>
-        <v>0.54020242180661238</v>
+        <v>0.54020242180661249</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3303,11 +4295,11 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="5"/>
-        <v>0.68622705718502897</v>
+        <v>0.68622705718502885</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="5"/>
-        <v>0.86899463542553457</v>
+        <v>0.86899463542553479</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3368,7 +4360,7 @@
       </c>
       <c r="C32">
         <f>[1]CONUS!C32</f>
-        <v>1.43781281481942</v>
+        <v>1.43781281481943</v>
       </c>
       <c r="D32">
         <f>[1]CONUS!D32</f>
@@ -3376,7 +4368,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="7"/>
-        <v>2.8306797773349697</v>
+        <v>2.8306797773349599</v>
       </c>
       <c r="F32">
         <f t="shared" si="8"/>
@@ -3397,7 +4389,7 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="5"/>
-        <v>0.39243247984508883</v>
+        <v>0.3924324798450875</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="5"/>
@@ -3461,7 +4453,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3512,10 +4504,10 @@
         <v>mean</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -3533,11 +4525,11 @@
       </c>
       <c r="D2">
         <f>[2]epa_ghgi_2022!D2</f>
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E2">
         <f>[2]epa_ghgi_2022!E2</f>
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="F2">
         <f>[2]epa_ghgi_2022!F2</f>
@@ -3545,19 +4537,19 @@
       </c>
       <c r="G2">
         <f>[2]epa_ghgi_2022!G2</f>
-        <v>0.70440000000000003</v>
+        <v>0.77483999999999997</v>
       </c>
       <c r="H2">
         <f>[2]epa_ghgi_2022!H2</f>
-        <v>0.70440000000000003</v>
+        <v>1.2679199999999999</v>
       </c>
       <c r="I2">
         <f>[2]epa_ghgi_2022!I2</f>
-        <v>1.3408820105E-3</v>
+        <v>1.3408820000000001E-3</v>
       </c>
       <c r="J2">
         <f>[2]epa_ghgi_2022!J2</f>
-        <v>1.0180721213799999E-2</v>
+        <v>1.0180721E-2</v>
       </c>
       <c r="K2">
         <f>[2]epa_ghgi_2022!K2</f>
@@ -3565,11 +4557,11 @@
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L17" si="0">G2^2</f>
-        <v>0.49617936000000001</v>
+        <v>0.60037702559999995</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M17" si="1">H2^2</f>
-        <v>0.49617936000000001</v>
+        <v>1.6076211263999998</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -3599,7 +4591,7 @@
       </c>
       <c r="G3">
         <f>[2]epa_ghgi_2022!G3</f>
-        <v>0.42264000000000002</v>
+        <v>0.42263999999999996</v>
       </c>
       <c r="H3">
         <f>[2]epa_ghgi_2022!H3</f>
@@ -3607,11 +4599,11 @@
       </c>
       <c r="I3">
         <f>[2]epa_ghgi_2022!I3</f>
-        <v>2.8038590000000002E-5</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J3">
         <f>[2]epa_ghgi_2022!J3</f>
-        <v>5.3562152959999994E-4</v>
+        <v>5.3562200000000003E-4</v>
       </c>
       <c r="K3">
         <f>[2]epa_ghgi_2022!K3</f>
@@ -3619,7 +4611,7 @@
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>0.1786245696</v>
+        <v>0.17862456959999998</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -3653,11 +4645,11 @@
       </c>
       <c r="G4">
         <f>[2]epa_ghgi_2022!G4</f>
-        <v>1.2398400000000001</v>
+        <v>1.2398399999999998</v>
       </c>
       <c r="H4">
         <f>[2]epa_ghgi_2022!H4</f>
-        <v>1.2398400000000001</v>
+        <v>1.2398399999999998</v>
       </c>
       <c r="I4">
         <f>[2]epa_ghgi_2022!I4</f>
@@ -3673,11 +4665,11 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>1.5372032256000001</v>
+        <v>1.5372032255999997</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>1.5372032256000001</v>
+        <v>1.5372032255999997</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -3707,11 +4699,11 @@
       </c>
       <c r="G5">
         <f>[2]epa_ghgi_2022!G5</f>
-        <v>0.2324</v>
+        <v>0.23240000000000002</v>
       </c>
       <c r="H5">
         <f>[2]epa_ghgi_2022!H5</f>
-        <v>0.55159999999999998</v>
+        <v>0.55160000000000009</v>
       </c>
       <c r="I5">
         <f>[2]epa_ghgi_2022!I5</f>
@@ -3727,11 +4719,11 @@
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>5.4009759999999997E-2</v>
+        <v>5.4009760000000011E-2</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>0.30426255999999996</v>
+        <v>0.30426256000000013</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -3761,7 +4753,7 @@
       </c>
       <c r="G6">
         <f>[2]epa_ghgi_2022!G6</f>
-        <v>0.45247999999999999</v>
+        <v>0.45248000000000005</v>
       </c>
       <c r="H6">
         <f>[2]epa_ghgi_2022!H6</f>
@@ -3781,7 +4773,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0.20473815039999999</v>
+        <v>0.20473815040000004</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
@@ -3819,7 +4811,7 @@
       </c>
       <c r="H7">
         <f>[2]epa_ghgi_2022!H7</f>
-        <v>0.99968000000000001</v>
+        <v>0.9996799999999999</v>
       </c>
       <c r="I7">
         <f>[2]epa_ghgi_2022!I7</f>
@@ -3839,7 +4831,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>0.99936010240000006</v>
+        <v>0.99936010239999984</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -3977,7 +4969,7 @@
       </c>
       <c r="G10">
         <f>[2]epa_ghgi_2022!G10</f>
-        <v>0.25340000000000001</v>
+        <v>0.25339999999999996</v>
       </c>
       <c r="H10">
         <f>[2]epa_ghgi_2022!H10</f>
@@ -3997,7 +4989,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>6.4211560000000001E-2</v>
+        <v>6.4211559999999973E-2</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
@@ -4031,11 +5023,11 @@
       </c>
       <c r="G11">
         <f>[2]epa_ghgi_2022!G11</f>
-        <v>0.45300000000000001</v>
+        <v>0.45299999999999996</v>
       </c>
       <c r="H11">
         <f>[2]epa_ghgi_2022!H11</f>
-        <v>0.45300000000000001</v>
+        <v>0.45299999999999996</v>
       </c>
       <c r="I11">
         <f>[2]epa_ghgi_2022!I11</f>
@@ -4051,11 +5043,11 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0.205209</v>
+        <v>0.20520899999999997</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>0.205209</v>
+        <v>0.20520899999999997</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -4089,7 +5081,7 @@
       </c>
       <c r="H12">
         <f>[2]epa_ghgi_2022!H12</f>
-        <v>0.44</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="I12">
         <f>[2]epa_ghgi_2022!I12</f>
@@ -4109,7 +5101,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>0.19359999999999999</v>
+        <v>0.19359999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -4193,11 +5185,11 @@
       </c>
       <c r="G14">
         <f>[2]epa_ghgi_2022!G14</f>
-        <v>2.8800000000000002E-3</v>
+        <v>2.8799999999999997E-3</v>
       </c>
       <c r="H14">
         <f>[2]epa_ghgi_2022!H14</f>
-        <v>2.8800000000000002E-3</v>
+        <v>2.8799999999999997E-3</v>
       </c>
       <c r="I14">
         <f>[2]epa_ghgi_2022!I14</f>
@@ -4213,11 +5205,11 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>8.2944000000000014E-6</v>
+        <v>8.294399999999998E-6</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>8.2944000000000014E-6</v>
+        <v>8.294399999999998E-6</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -4251,7 +5243,7 @@
       </c>
       <c r="H15">
         <f>[2]epa_ghgi_2022!H15</f>
-        <v>5.5199999999999997E-3</v>
+        <v>5.5200000000000006E-3</v>
       </c>
       <c r="I15">
         <f>[2]epa_ghgi_2022!I15</f>
@@ -4271,7 +5263,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>3.0470399999999995E-5</v>
+        <v>3.0470400000000006E-5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -4389,125 +5381,142 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589868AA-5A05-C94B-A407-CB8788A01811}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C5" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <f>SUMIF(raw_epa!$A$2:$A$17,$A2, raw_epa!K$2:K$17)</f>
+        <f>SUMIF(raw_epa22!$A$2:$A$17,$A2, raw_epa22!K$2:K$17)</f>
         <v>9.3799147410000003</v>
       </c>
       <c r="C2">
-        <f>B2-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A2, raw_epa!L$2:L$17))</f>
-        <v>8.5584502380541938</v>
+        <f>B2-SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A2, raw_epa22!L$2:L$17))</f>
+        <v>8.4973040707721808</v>
       </c>
       <c r="D2">
-        <f>B2+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A2, raw_epa!M$2:M$17))</f>
-        <v>10.226498180478945</v>
+        <f>B2+SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A2, raw_epa22!M$2:M$17))</f>
+        <v>10.732003971191558</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <f>SUMIF(raw_epa!$A$2:$A$17,$A3, raw_epa!K$2:K$17)</f>
+        <f>SUMIF(raw_epa22!$A$2:$A$17,$A3, raw_epa22!K$2:K$17)</f>
         <v>8.7380434769999997</v>
       </c>
       <c r="C3">
-        <f>B3-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A3, raw_epa!L$2:L$17))</f>
+        <f>B3-SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A3, raw_epa22!L$2:L$17))</f>
         <v>7.3979124625092521</v>
       </c>
       <c r="D3">
-        <f>B3+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A3, raw_epa!M$2:M$17))</f>
-        <v>10.190241424939606</v>
+        <f>B3+SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A3, raw_epa22!M$2:M$17))</f>
+        <v>10.190241424939604</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <f>SUMIF(raw_epa!$A$2:$A$17,$A4, raw_epa!K$2:K$17)</f>
+        <f>SUMIF(raw_epa22!$A$2:$A$17,$A4, raw_epa22!K$2:K$17)</f>
         <v>2.13145183</v>
       </c>
       <c r="C4">
-        <f>B4-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A4, raw_epa!L$2:L$17))</f>
+        <f>B4-SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A4, raw_epa22!L$2:L$17))</f>
         <v>1.9530878874555497</v>
       </c>
       <c r="D4">
-        <f>B4+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A4, raw_epa!M$2:M$17))</f>
+        <f>B4+SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A4, raw_epa22!M$2:M$17))</f>
         <v>2.4572094429578555</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <f>SUMIF(raw_epa!$A$2:$A$17,$A5, raw_epa!K$2:K$17)</f>
+        <f>SUMIF(raw_epa22!$A$2:$A$17,$A5, raw_epa22!K$2:K$17)</f>
         <v>4.5111922399999997</v>
       </c>
       <c r="C5">
-        <f>B5-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A5, raw_epa!L$2:L$17))</f>
+        <f>B5-SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A5, raw_epa22!L$2:L$17))</f>
         <v>3.4660722399999999</v>
       </c>
       <c r="D5">
-        <f>B5+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A5, raw_epa!M$2:M$17))</f>
+        <f>B5+SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A5, raw_epa22!M$2:M$17))</f>
         <v>5.5108722399999994</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <f>SUMIF(raw_epa!$A$2:$A$17,$A6, raw_epa!K$2:K$17)</f>
+        <f>SUMIF(raw_epa22!$A$2:$A$17,$A6, raw_epa22!K$2:K$17)</f>
         <v>0.72086680999999997</v>
       </c>
       <c r="C6">
-        <f>B6-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A6, raw_epa!L$2:L$17))</f>
-        <v>0.46746680999999995</v>
+        <f>B6-SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A6, raw_epa22!L$2:L$17))</f>
+        <v>0.46746681000000001</v>
       </c>
       <c r="D6">
-        <f>B6+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A6, raw_epa!M$2:M$17))</f>
+        <f>B6+SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A6, raw_epa22!M$2:M$17))</f>
         <v>0.88738680999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <f>SUMIF(raw_epa!$A$2:$A$17,$A7, raw_epa!K$2:K$17)</f>
+        <f>SUMIF(raw_epa22!$A$2:$A$17,$A7, raw_epa22!K$2:K$17)</f>
         <v>1.18022143</v>
       </c>
       <c r="C7">
-        <f>B7-SQRT(SUMIF(raw_epa!$A$2:$A$17,$A7, raw_epa!L$2:L$17))</f>
-        <v>0.70850399932778074</v>
+        <f>B7-SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A7, raw_epa22!L$2:L$17))</f>
+        <v>0.70850399932778085</v>
       </c>
       <c r="D7">
-        <f>B7+SQRT(SUMIF(raw_epa!$A$2:$A$17,$A7, raw_epa!M$2:M$17))</f>
+        <f>B7+SQRT(SUMIF(raw_epa22!$A$2:$A$17,$A7, raw_epa22!M$2:M$17))</f>
         <v>1.8144845589930072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>26.661690527999998</v>
+      </c>
+      <c r="C8">
+        <f>B8*0.9</f>
+        <v>23.995521475199997</v>
+      </c>
+      <c r="D8">
+        <f>B8*1.1</f>
+        <v>29.327859580799998</v>
       </c>
     </row>
   </sheetData>
@@ -4516,279 +5525,1707 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA88FAE9-069C-584B-9EEE-4E86A0C173B1}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>[3]epa_ghgi_2023!A1</f>
+        <v>sector</v>
+      </c>
+      <c r="B1" t="str">
+        <f>[3]epa_ghgi_2023!B1</f>
+        <v>subsector</v>
+      </c>
+      <c r="C1" t="str">
+        <f>[3]epa_ghgi_2023!C1</f>
+        <v>mean_MMTCO2</v>
+      </c>
+      <c r="D1" t="str">
+        <f>[3]epa_ghgi_2023!D1</f>
+        <v>minus_MMTCO2</v>
+      </c>
+      <c r="E1" t="str">
+        <f>[3]epa_ghgi_2023!E1</f>
+        <v>plus_MMTCO2</v>
+      </c>
+      <c r="F1" t="str">
+        <f>[3]epa_ghgi_2023!F1</f>
+        <v>mean_MMTCO2_2022</v>
+      </c>
+      <c r="G1" t="str">
+        <f>[3]epa_ghgi_2023!G1</f>
+        <v>mean_all</v>
+      </c>
+      <c r="H1" t="str">
+        <f>[3]epa_ghgi_2023!H1</f>
+        <v>minus</v>
+      </c>
+      <c r="I1" t="str">
+        <f>[3]epa_ghgi_2023!I1</f>
+        <v>plus</v>
+      </c>
+      <c r="J1" t="str">
+        <f>[3]epa_ghgi_2023!J1</f>
+        <v>AK_2022</v>
+      </c>
+      <c r="K1" t="str">
+        <f>[3]epa_ghgi_2023!K1</f>
+        <v>AK_2023</v>
+      </c>
+      <c r="L1" t="str">
+        <f>[3]epa_ghgi_2023!L1</f>
+        <v>HI_2022</v>
+      </c>
+      <c r="M1" t="str">
+        <f>[3]epa_ghgi_2023!M1</f>
+        <v>HI_2023</v>
+      </c>
+      <c r="N1" t="str">
+        <f>[3]epa_ghgi_2023!N1</f>
+        <v>mean</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>[3]epa_ghgi_2023!A2</f>
+        <v>livestock</v>
+      </c>
+      <c r="B2" t="str">
+        <f>[3]epa_ghgi_2023!B2</f>
+        <v>enteric_fermentation</v>
+      </c>
+      <c r="C2">
+        <f>[3]epa_ghgi_2023!C2</f>
+        <v>197.3</v>
+      </c>
+      <c r="D2">
+        <f>[3]epa_ghgi_2023!D2</f>
+        <v>21.703000000000003</v>
+      </c>
+      <c r="E2">
+        <f>[3]epa_ghgi_2023!E2</f>
+        <v>35.514000000000003</v>
+      </c>
+      <c r="F2">
+        <f>[3]epa_ghgi_2023!F2</f>
+        <v>176.1</v>
+      </c>
+      <c r="G2">
+        <f>[3]epa_ghgi_2023!G2</f>
+        <v>7.0464285709999999</v>
+      </c>
+      <c r="H2">
+        <f>[3]epa_ghgi_2023!H2</f>
+        <v>0.77510714285714299</v>
+      </c>
+      <c r="I2">
+        <f>[3]epa_ghgi_2023!I2</f>
+        <v>1.268357142857143</v>
+      </c>
+      <c r="J2">
+        <f>[3]epa_ghgi_2023!J2</f>
+        <v>1.3408820000000001E-3</v>
+      </c>
+      <c r="K2">
+        <f>[3]epa_ghgi_2023!K2</f>
+        <v>1.5023059999999999E-3</v>
+      </c>
+      <c r="L2">
+        <f>[3]epa_ghgi_2023!L2</f>
+        <v>1.0180721E-2</v>
+      </c>
+      <c r="M2">
+        <f>[3]epa_ghgi_2023!M2</f>
+        <v>1.1406339E-2</v>
+      </c>
+      <c r="N2">
+        <f>[3]epa_ghgi_2023!N2</f>
+        <v>7.0335199270000004</v>
+      </c>
+      <c r="O2">
+        <f>H2^2</f>
+        <v>0.60079108290816352</v>
+      </c>
+      <c r="P2">
+        <f>I2^2</f>
+        <v>1.6087298418367351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>[3]epa_ghgi_2023!A3</f>
+        <v>livestock</v>
+      </c>
+      <c r="B3" t="str">
+        <f>[3]epa_ghgi_2023!B3</f>
+        <v>manure_management</v>
+      </c>
+      <c r="C3">
+        <f>[3]epa_ghgi_2023!C3</f>
+        <v>65.7</v>
+      </c>
+      <c r="D3">
+        <f>[3]epa_ghgi_2023!D3</f>
+        <v>11.826000000000001</v>
+      </c>
+      <c r="E3">
+        <f>[3]epa_ghgi_2023!E3</f>
+        <v>13.14</v>
+      </c>
+      <c r="F3">
+        <f>[3]epa_ghgi_2023!F3</f>
+        <v>58.7</v>
+      </c>
+      <c r="G3">
+        <f>[3]epa_ghgi_2023!G3</f>
+        <v>2.3464285710000001</v>
+      </c>
+      <c r="H3">
+        <f>[3]epa_ghgi_2023!H3</f>
+        <v>0.42235714285714288</v>
+      </c>
+      <c r="I3">
+        <f>[3]epa_ghgi_2023!I3</f>
+        <v>0.46928571428571431</v>
+      </c>
+      <c r="J3">
+        <f>[3]epa_ghgi_2023!J3</f>
+        <v>2.8E-5</v>
+      </c>
+      <c r="K3">
+        <f>[3]epa_ghgi_2023!K3</f>
+        <v>3.1300000000000002E-5</v>
+      </c>
+      <c r="L3">
+        <f>[3]epa_ghgi_2023!L3</f>
+        <v>5.3562200000000003E-4</v>
+      </c>
+      <c r="M3">
+        <f>[3]epa_ghgi_2023!M3</f>
+        <v>5.9949500000000002E-4</v>
+      </c>
+      <c r="N3">
+        <f>[3]epa_ghgi_2023!N3</f>
+        <v>2.3457977369999998</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O17" si="0">H3^2</f>
+        <v>0.178385556122449</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P17" si="1">I3^2</f>
+        <v>0.22022908163265309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>[3]epa_ghgi_2023!A4</f>
+        <v>ong</v>
+      </c>
+      <c r="B4" t="str">
+        <f>[3]epa_ghgi_2023!B4</f>
+        <v>natural_gas_systems</v>
+      </c>
+      <c r="C4">
+        <f>[3]epa_ghgi_2023!C4</f>
+        <v>193.6</v>
+      </c>
+      <c r="D4">
+        <f>[3]epa_ghgi_2023!D4</f>
+        <v>32.911999999999999</v>
+      </c>
+      <c r="E4">
+        <f>[3]epa_ghgi_2023!E4</f>
+        <v>32.911999999999999</v>
+      </c>
+      <c r="F4">
+        <f>[3]epa_ghgi_2023!F4</f>
+        <v>172.2</v>
+      </c>
+      <c r="G4">
+        <f>[3]epa_ghgi_2023!G4</f>
+        <v>6.914285714</v>
+      </c>
+      <c r="H4">
+        <f>[3]epa_ghgi_2023!H4</f>
+        <v>1.1754285714285715</v>
+      </c>
+      <c r="I4">
+        <f>[3]epa_ghgi_2023!I4</f>
+        <v>1.1754285714285715</v>
+      </c>
+      <c r="J4">
+        <f>[3]epa_ghgi_2023!J4</f>
+        <v>1.8473119999999999E-2</v>
+      </c>
+      <c r="K4">
+        <f>[3]epa_ghgi_2023!K4</f>
+        <v>2.0768849999999998E-2</v>
+      </c>
+      <c r="L4">
+        <f>[3]epa_ghgi_2023!L4</f>
+        <v>5.7967999999999995E-4</v>
+      </c>
+      <c r="M4">
+        <f>[3]epa_ghgi_2023!M4</f>
+        <v>6.5171900000000004E-4</v>
+      </c>
+      <c r="N4">
+        <f>[3]epa_ghgi_2023!N4</f>
+        <v>6.892865145</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1.3816323265306123</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>1.3816323265306123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>[3]epa_ghgi_2023!A5</f>
+        <v>ong</v>
+      </c>
+      <c r="B5" t="str">
+        <f>[3]epa_ghgi_2023!B5</f>
+        <v>abandoned_wells</v>
+      </c>
+      <c r="C5">
+        <f>[3]epa_ghgi_2023!C5</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D5">
+        <f>[3]epa_ghgi_2023!D5</f>
+        <v>6.9720000000000004</v>
+      </c>
+      <c r="E5">
+        <f>[3]epa_ghgi_2023!E5</f>
+        <v>14.940000000000001</v>
+      </c>
+      <c r="F5">
+        <f>[3]epa_ghgi_2023!F5</f>
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <f>[3]epa_ghgi_2023!G5</f>
+        <v>0.29642857099999997</v>
+      </c>
+      <c r="H5">
+        <f>[3]epa_ghgi_2023!H5</f>
+        <v>0.24900000000000003</v>
+      </c>
+      <c r="I5">
+        <f>[3]epa_ghgi_2023!I5</f>
+        <v>0.53357142857142859</v>
+      </c>
+      <c r="J5">
+        <f>[3]epa_ghgi_2023!J5</f>
+        <v>2.0330000000000001E-4</v>
+      </c>
+      <c r="K5">
+        <f>[3]epa_ghgi_2023!K5</f>
+        <v>2.4105599999999999E-4</v>
+      </c>
+      <c r="L5">
+        <f>[3]epa_ghgi_2023!L5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>[3]epa_ghgi_2023!M5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>[3]epa_ghgi_2023!N5</f>
+        <v>0.29618751599999998</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>6.2001000000000014E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0.28469846938775512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>[3]epa_ghgi_2023!A6</f>
+        <v>ong</v>
+      </c>
+      <c r="B6" t="str">
+        <f>[3]epa_ghgi_2023!B6</f>
+        <v>petroleum_systems</v>
+      </c>
+      <c r="C6">
+        <f>[3]epa_ghgi_2023!C6</f>
+        <v>59.9</v>
+      </c>
+      <c r="D6">
+        <f>[3]epa_ghgi_2023!D6</f>
+        <v>5.99</v>
+      </c>
+      <c r="E6">
+        <f>[3]epa_ghgi_2023!E6</f>
+        <v>8.9849999999999994</v>
+      </c>
+      <c r="F6">
+        <f>[3]epa_ghgi_2023!F6</f>
+        <v>40.4</v>
+      </c>
+      <c r="G6">
+        <f>[3]epa_ghgi_2023!G6</f>
+        <v>2.1392857140000001</v>
+      </c>
+      <c r="H6">
+        <f>[3]epa_ghgi_2023!H6</f>
+        <v>0.21392857142857144</v>
+      </c>
+      <c r="I6">
+        <f>[3]epa_ghgi_2023!I6</f>
+        <v>0.32089285714285715</v>
+      </c>
+      <c r="J6">
+        <f>[3]epa_ghgi_2023!J6</f>
+        <v>2.667282E-2</v>
+      </c>
+      <c r="K6">
+        <f>[3]epa_ghgi_2023!K6</f>
+        <v>3.9547077E-2</v>
+      </c>
+      <c r="L6">
+        <f>[3]epa_ghgi_2023!L6</f>
+        <v>2.7603E-5</v>
+      </c>
+      <c r="M6">
+        <f>[3]epa_ghgi_2023!M6</f>
+        <v>4.0926200000000001E-5</v>
+      </c>
+      <c r="N6">
+        <f>[3]epa_ghgi_2023!N6</f>
+        <v>2.0996977110000001</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>4.5765433673469393E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0.10297222576530612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>[3]epa_ghgi_2023!A7</f>
+        <v>landfills</v>
+      </c>
+      <c r="B7" t="str">
+        <f>[3]epa_ghgi_2023!B7</f>
+        <v>landfills</v>
+      </c>
+      <c r="C7">
+        <f>[3]epa_ghgi_2023!C7</f>
+        <v>129</v>
+      </c>
+      <c r="D7">
+        <f>[3]epa_ghgi_2023!D7</f>
+        <v>24.51</v>
+      </c>
+      <c r="E7">
+        <f>[3]epa_ghgi_2023!E7</f>
+        <v>33.54</v>
+      </c>
+      <c r="F7">
+        <f>[3]epa_ghgi_2023!F7</f>
+        <v>113.6</v>
+      </c>
+      <c r="G7">
+        <f>[3]epa_ghgi_2023!G7</f>
+        <v>4.6071428570000004</v>
+      </c>
+      <c r="H7">
+        <f>[3]epa_ghgi_2023!H7</f>
+        <v>0.87535714285714294</v>
+      </c>
+      <c r="I7">
+        <f>[3]epa_ghgi_2023!I7</f>
+        <v>1.1978571428571427</v>
+      </c>
+      <c r="J7">
+        <f>[3]epa_ghgi_2023!J7</f>
+        <v>1.921227E-2</v>
+      </c>
+      <c r="K7">
+        <f>[3]epa_ghgi_2023!K7</f>
+        <v>2.1816749999999999E-2</v>
+      </c>
+      <c r="L7">
+        <f>[3]epa_ghgi_2023!L7</f>
+        <v>1.359549E-2</v>
+      </c>
+      <c r="M7">
+        <f>[3]epa_ghgi_2023!M7</f>
+        <v>1.5438541E-2</v>
+      </c>
+      <c r="N7">
+        <f>[3]epa_ghgi_2023!N7</f>
+        <v>4.5698875660000002</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.76625012755102051</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>1.4348617346938772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>[3]epa_ghgi_2023!A8</f>
+        <v>coal</v>
+      </c>
+      <c r="B8" t="str">
+        <f>[3]epa_ghgi_2023!B8</f>
+        <v>coal_mining</v>
+      </c>
+      <c r="C8">
+        <f>[3]epa_ghgi_2023!C8</f>
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <f>[3]epa_ghgi_2023!D8</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="E8">
+        <f>[3]epa_ghgi_2023!E8</f>
+        <v>11.129999999999999</v>
+      </c>
+      <c r="F8">
+        <f>[3]epa_ghgi_2023!F8</f>
+        <v>47.4</v>
+      </c>
+      <c r="G8">
+        <f>[3]epa_ghgi_2023!G8</f>
+        <v>1.8928571430000001</v>
+      </c>
+      <c r="H8">
+        <f>[3]epa_ghgi_2023!H8</f>
+        <v>0.18928571428571431</v>
+      </c>
+      <c r="I8">
+        <f>[3]epa_ghgi_2023!I8</f>
+        <v>0.39749999999999996</v>
+      </c>
+      <c r="J8">
+        <f>[3]epa_ghgi_2023!J8</f>
+        <v>5.4816999999999995E-4</v>
+      </c>
+      <c r="K8">
+        <f>[3]epa_ghgi_2023!K8</f>
+        <v>6.1293299999999997E-4</v>
+      </c>
+      <c r="L8">
+        <f>[3]epa_ghgi_2023!L8</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>[3]epa_ghgi_2023!M8</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>[3]epa_ghgi_2023!N8</f>
+        <v>1.8922442100000001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>3.5829081632653068E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0.15800624999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>[3]epa_ghgi_2023!A9</f>
+        <v>coal</v>
+      </c>
+      <c r="B9" t="str">
+        <f>[3]epa_ghgi_2023!B9</f>
+        <v>abandoned_coal</v>
+      </c>
+      <c r="C9">
+        <f>[3]epa_ghgi_2023!C9</f>
+        <v>6.6</v>
+      </c>
+      <c r="D9">
+        <f>[3]epa_ghgi_2023!D9</f>
+        <v>1.452</v>
+      </c>
+      <c r="E9">
+        <f>[3]epa_ghgi_2023!E9</f>
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="F9">
+        <f>[3]epa_ghgi_2023!F9</f>
+        <v>5.9</v>
+      </c>
+      <c r="G9">
+        <f>[3]epa_ghgi_2023!G9</f>
+        <v>0.235714286</v>
+      </c>
+      <c r="H9">
+        <f>[3]epa_ghgi_2023!H9</f>
+        <v>5.1857142857142859E-2</v>
+      </c>
+      <c r="I9">
+        <f>[3]epa_ghgi_2023!I9</f>
+        <v>4.9499999999999995E-2</v>
+      </c>
+      <c r="J9">
+        <f>[3]epa_ghgi_2023!J9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>[3]epa_ghgi_2023!K9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>[3]epa_ghgi_2023!L9</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>[3]epa_ghgi_2023!M9</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>[3]epa_ghgi_2023!N9</f>
+        <v>0.235714286</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>2.6891632653061226E-3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>2.4502499999999997E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>[3]epa_ghgi_2023!A10</f>
+        <v>wastewater</v>
+      </c>
+      <c r="B10" t="str">
+        <f>[3]epa_ghgi_2023!B10</f>
+        <v>wastewater</v>
+      </c>
+      <c r="C10">
+        <f>[3]epa_ghgi_2023!C10</f>
+        <v>21.2</v>
+      </c>
+      <c r="D10">
+        <f>[3]epa_ghgi_2023!D10</f>
+        <v>6.1479999999999997</v>
+      </c>
+      <c r="E10">
+        <f>[3]epa_ghgi_2023!E10</f>
+        <v>6.7839999999999998</v>
+      </c>
+      <c r="F10">
+        <f>[3]epa_ghgi_2023!F10</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G10">
+        <f>[3]epa_ghgi_2023!G10</f>
+        <v>0.75714285699999995</v>
+      </c>
+      <c r="H10">
+        <f>[3]epa_ghgi_2023!H10</f>
+        <v>0.21957142857142856</v>
+      </c>
+      <c r="I10">
+        <f>[3]epa_ghgi_2023!I10</f>
+        <v>0.24228571428571427</v>
+      </c>
+      <c r="J10">
+        <f>[3]epa_ghgi_2023!J10</f>
+        <v>1.07891E-3</v>
+      </c>
+      <c r="K10">
+        <f>[3]epa_ghgi_2023!K10</f>
+        <v>1.2636959999999999E-3</v>
+      </c>
+      <c r="L10">
+        <f>[3]epa_ghgi_2023!L10</f>
+        <v>2.0542799999999999E-3</v>
+      </c>
+      <c r="M10">
+        <f>[3]epa_ghgi_2023!M10</f>
+        <v>2.4061180000000001E-3</v>
+      </c>
+      <c r="N10">
+        <f>[3]epa_ghgi_2023!N10</f>
+        <v>0.75347304299999995</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>4.821161224489795E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>5.8702367346938768E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>[3]epa_ghgi_2023!A11</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B11" t="str">
+        <f>[3]epa_ghgi_2023!B11</f>
+        <v>rice</v>
+      </c>
+      <c r="C11">
+        <f>[3]epa_ghgi_2023!C11</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D11">
+        <f>[3]epa_ghgi_2023!D11</f>
+        <v>12.674999999999999</v>
+      </c>
+      <c r="E11">
+        <f>[3]epa_ghgi_2023!E11</f>
+        <v>12.674999999999999</v>
+      </c>
+      <c r="F11">
+        <f>[3]epa_ghgi_2023!F11</f>
+        <v>15.1</v>
+      </c>
+      <c r="G11">
+        <f>[3]epa_ghgi_2023!G11</f>
+        <v>0.60357142900000005</v>
+      </c>
+      <c r="H11">
+        <f>[3]epa_ghgi_2023!H11</f>
+        <v>0.45267857142857137</v>
+      </c>
+      <c r="I11">
+        <f>[3]epa_ghgi_2023!I11</f>
+        <v>0.45267857142857137</v>
+      </c>
+      <c r="J11">
+        <f>[3]epa_ghgi_2023!J11</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>[3]epa_ghgi_2023!K11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>[3]epa_ghgi_2023!L11</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>[3]epa_ghgi_2023!M11</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>[3]epa_ghgi_2023!N11</f>
+        <v>0.60357142900000005</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.2049178890306122</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0.2049178890306122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>[3]epa_ghgi_2023!A12</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B12" t="str">
+        <f>[3]epa_ghgi_2023!B12</f>
+        <v>stationary_combustion</v>
+      </c>
+      <c r="C12">
+        <f>[3]epa_ghgi_2023!C12</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D12">
+        <f>[3]epa_ghgi_2023!D12</f>
+        <v>3.3320000000000003</v>
+      </c>
+      <c r="E12">
+        <f>[3]epa_ghgi_2023!E12</f>
+        <v>12.446000000000002</v>
+      </c>
+      <c r="F12">
+        <f>[3]epa_ghgi_2023!F12</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G12">
+        <f>[3]epa_ghgi_2023!G12</f>
+        <v>0.35</v>
+      </c>
+      <c r="H12">
+        <f>[3]epa_ghgi_2023!H12</f>
+        <v>0.11900000000000001</v>
+      </c>
+      <c r="I12">
+        <f>[3]epa_ghgi_2023!I12</f>
+        <v>0.44450000000000006</v>
+      </c>
+      <c r="J12">
+        <f>[3]epa_ghgi_2023!J12</f>
+        <v>2.57479E-3</v>
+      </c>
+      <c r="K12">
+        <f>[3]epa_ghgi_2023!K12</f>
+        <v>2.8673800000000001E-3</v>
+      </c>
+      <c r="L12">
+        <f>[3]epa_ghgi_2023!L12</f>
+        <v>1.2066999999999999E-4</v>
+      </c>
+      <c r="M12">
+        <f>[3]epa_ghgi_2023!M12</f>
+        <v>1.3438299999999999E-4</v>
+      </c>
+      <c r="N12">
+        <f>[3]epa_ghgi_2023!N12</f>
+        <v>0.34699823800000001</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1.4161000000000002E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0.19758025000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>[3]epa_ghgi_2023!A13</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B13" t="str">
+        <f>[3]epa_ghgi_2023!B13</f>
+        <v>mobile_combustion</v>
+      </c>
+      <c r="C13">
+        <f>[3]epa_ghgi_2023!C13</f>
+        <v>2.9</v>
+      </c>
+      <c r="D13">
+        <f>[3]epa_ghgi_2023!D13</f>
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="E13">
+        <f>[3]epa_ghgi_2023!E13</f>
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="F13">
+        <f>[3]epa_ghgi_2023!F13</f>
+        <v>2.5</v>
+      </c>
+      <c r="G13">
+        <f>[3]epa_ghgi_2023!G13</f>
+        <v>0.10357142900000001</v>
+      </c>
+      <c r="H13">
+        <f>[3]epa_ghgi_2023!H13</f>
+        <v>4.1428571428571426E-3</v>
+      </c>
+      <c r="I13">
+        <f>[3]epa_ghgi_2023!I13</f>
+        <v>3.0035714285714284E-2</v>
+      </c>
+      <c r="J13">
+        <f>[3]epa_ghgi_2023!J13</f>
+        <v>3.7681999999999999E-4</v>
+      </c>
+      <c r="K13">
+        <f>[3]epa_ghgi_2023!K13</f>
+        <v>4.3711100000000001E-4</v>
+      </c>
+      <c r="L13">
+        <f>[3]epa_ghgi_2023!L13</f>
+        <v>7.0629000000000004E-4</v>
+      </c>
+      <c r="M13">
+        <f>[3]epa_ghgi_2023!M13</f>
+        <v>8.1929599999999996E-4</v>
+      </c>
+      <c r="N13">
+        <f>[3]epa_ghgi_2023!N13</f>
+        <v>0.10231502100000001</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>1.7163265306122447E-5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>9.0214413265306108E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>[3]epa_ghgi_2023!A14</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B14" t="str">
+        <f>[3]epa_ghgi_2023!B14</f>
+        <v>field_burning</v>
+      </c>
+      <c r="C14">
+        <f>[3]epa_ghgi_2023!C14</f>
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <f>[3]epa_ghgi_2023!D14</f>
+        <v>0.08</v>
+      </c>
+      <c r="E14">
+        <f>[3]epa_ghgi_2023!E14</f>
+        <v>0.08</v>
+      </c>
+      <c r="F14">
+        <f>[3]epa_ghgi_2023!F14</f>
+        <v>0.4</v>
+      </c>
+      <c r="G14">
+        <f>[3]epa_ghgi_2023!G14</f>
+        <v>1.7857142999999999E-2</v>
+      </c>
+      <c r="H14">
+        <f>[3]epa_ghgi_2023!H14</f>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="I14">
+        <f>[3]epa_ghgi_2023!I14</f>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="J14">
+        <f>[3]epa_ghgi_2023!J14</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>[3]epa_ghgi_2023!K14</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>[3]epa_ghgi_2023!L14</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>[3]epa_ghgi_2023!M14</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>[3]epa_ghgi_2023!N14</f>
+        <v>1.7857142999999999E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>8.1632653061224483E-6</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>8.1632653061224483E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>[3]epa_ghgi_2023!A15</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B15" t="str">
+        <f>[3]epa_ghgi_2023!B15</f>
+        <v>petrochemical_production</v>
+      </c>
+      <c r="C15">
+        <f>[3]epa_ghgi_2023!C15</f>
+        <v>0.4</v>
+      </c>
+      <c r="D15">
+        <f>[3]epa_ghgi_2023!D15</f>
+        <v>0.23199999999999998</v>
+      </c>
+      <c r="E15">
+        <f>[3]epa_ghgi_2023!E15</f>
+        <v>0.192</v>
+      </c>
+      <c r="F15">
+        <f>[3]epa_ghgi_2023!F15</f>
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <f>[3]epa_ghgi_2023!G15</f>
+        <v>1.4285714E-2</v>
+      </c>
+      <c r="H15">
+        <f>[3]epa_ghgi_2023!H15</f>
+        <v>8.2857142857142851E-3</v>
+      </c>
+      <c r="I15">
+        <f>[3]epa_ghgi_2023!I15</f>
+        <v>6.8571428571428577E-3</v>
+      </c>
+      <c r="J15">
+        <f>[3]epa_ghgi_2023!J15</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>[3]epa_ghgi_2023!K15</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>[3]epa_ghgi_2023!L15</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>[3]epa_ghgi_2023!M15</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>[3]epa_ghgi_2023!N15</f>
+        <v>1.4285714E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>6.8653061224489787E-5</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>4.7020408163265312E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>[3]epa_ghgi_2023!A16</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B16" t="str">
+        <f>[3]epa_ghgi_2023!B16</f>
+        <v>anaroebic_digestion</v>
+      </c>
+      <c r="C16">
+        <f>[3]epa_ghgi_2023!C16</f>
+        <v>0.2</v>
+      </c>
+      <c r="D16">
+        <f>[3]epa_ghgi_2023!D16</f>
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="E16">
+        <f>[3]epa_ghgi_2023!E16</f>
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="F16">
+        <f>[3]epa_ghgi_2023!F16</f>
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <f>[3]epa_ghgi_2023!G16</f>
+        <v>7.1428569999999999E-3</v>
+      </c>
+      <c r="H16">
+        <f>[3]epa_ghgi_2023!H16</f>
+        <v>3.8571428571428576E-3</v>
+      </c>
+      <c r="I16">
+        <f>[3]epa_ghgi_2023!I16</f>
+        <v>3.8571428571428576E-3</v>
+      </c>
+      <c r="J16">
+        <f>[3]epa_ghgi_2023!J16</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>[3]epa_ghgi_2023!K16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>[3]epa_ghgi_2023!L16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>[3]epa_ghgi_2023!M16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>[3]epa_ghgi_2023!N16</f>
+        <v>7.1428569999999999E-3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>1.4877551020408167E-5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>1.4877551020408167E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>[3]epa_ghgi_2023!A17</f>
+        <v>other_anth</v>
+      </c>
+      <c r="B17" t="str">
+        <f>[3]epa_ghgi_2023!B17</f>
+        <v>composting</v>
+      </c>
+      <c r="C17">
+        <f>[3]epa_ghgi_2023!C17</f>
+        <v>2.5</v>
+      </c>
+      <c r="D17">
+        <f>[3]epa_ghgi_2023!D17</f>
+        <v>1.45</v>
+      </c>
+      <c r="E17">
+        <f>[3]epa_ghgi_2023!E17</f>
+        <v>1.45</v>
+      </c>
+      <c r="F17">
+        <f>[3]epa_ghgi_2023!F17</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G17">
+        <f>[3]epa_ghgi_2023!G17</f>
+        <v>8.9285714000000002E-2</v>
+      </c>
+      <c r="H17">
+        <f>[3]epa_ghgi_2023!H17</f>
+        <v>5.1785714285714282E-2</v>
+      </c>
+      <c r="I17">
+        <f>[3]epa_ghgi_2023!I17</f>
+        <v>5.1785714285714282E-2</v>
+      </c>
+      <c r="J17">
+        <f>[3]epa_ghgi_2023!J17</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>[3]epa_ghgi_2023!K17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>[3]epa_ghgi_2023!L17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>[3]epa_ghgi_2023!M17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>[3]epa_ghgi_2023!N17</f>
+        <v>8.9285714000000002E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>2.6817602040816323E-3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>2.6817602040816323E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2508EF74-0D20-F548-A62A-26A857DC949C}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <f>SUMIF(raw_epa23!$A$2:$A$17,$A2, raw_epa23!N$2:N$17)</f>
+        <v>9.3793176640000002</v>
+      </c>
+      <c r="C2">
+        <f>B2-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A2, raw_epa23!O$2:O$17))</f>
+        <v>8.4966078368027418</v>
+      </c>
+      <c r="D2">
+        <f>B2+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A2, raw_epa23!P$2:P$17))</f>
+        <v>10.731707742146607</v>
+      </c>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <f>SUMIF(raw_epa23!$A$2:$A$17,$A3, raw_epa23!N$2:N$17)</f>
+        <v>9.2887503719999991</v>
+      </c>
+      <c r="C3">
+        <f>B3-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A3, raw_epa23!O$2:O$17))</f>
+        <v>8.0683411126922522</v>
+      </c>
+      <c r="D3">
+        <f>B3+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A3, raw_epa23!P$2:P$17))</f>
+        <v>10.618901875282116</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f>SUMIF(raw_epa23!$A$2:$A$17,$A4, raw_epa23!N$2:N$17)</f>
+        <v>2.1279584960000002</v>
+      </c>
+      <c r="C4">
+        <f>B4-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A4, raw_epa23!O$2:O$17))</f>
+        <v>1.9316978404982945</v>
+      </c>
+      <c r="D4">
+        <f>B4+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A4, raw_epa23!P$2:P$17))</f>
+        <v>2.5285287145634876</v>
+      </c>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>SUMIF(raw_epa23!$A$2:$A$17,$A5, raw_epa23!N$2:N$17)</f>
+        <v>4.5698875660000002</v>
+      </c>
+      <c r="C5">
+        <f>B5-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A5, raw_epa23!O$2:O$17))</f>
+        <v>3.6945304231428571</v>
+      </c>
+      <c r="D5">
+        <f>B5+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A5, raw_epa23!P$2:P$17))</f>
+        <v>5.7677447088571432</v>
+      </c>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>SUMIF(raw_epa23!$A$2:$A$17,$A6, raw_epa23!N$2:N$17)</f>
+        <v>0.75347304299999995</v>
+      </c>
+      <c r="C6">
+        <f>B6-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A6, raw_epa23!O$2:O$17))</f>
+        <v>0.53390161442857142</v>
+      </c>
+      <c r="D6">
+        <f>B6+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A6, raw_epa23!P$2:P$17))</f>
+        <v>0.99575875728571428</v>
+      </c>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <f>SUMIF(raw_epa23!$A$2:$A$17,$A7, raw_epa23!N$2:N$17)</f>
+        <v>1.1814561160000003</v>
+      </c>
+      <c r="C7">
+        <f>B7-SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A7, raw_epa23!O$2:O$17))</f>
+        <v>0.71042585542478953</v>
+      </c>
+      <c r="D7">
+        <f>B7+SQRT(SUMIF(raw_epa23!$A$2:$A$17,$A7, raw_epa23!P$2:P$17))</f>
+        <v>1.8187567550957389</v>
+      </c>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>27.300843257000004</v>
+      </c>
+      <c r="C8">
+        <f>B8*(1-0.08)</f>
+        <v>25.116775796440006</v>
+      </c>
+      <c r="D8">
+        <f>B8*1.12</f>
+        <v>30.576944447840006</v>
+      </c>
+      <c r="F8" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585A23CA-05DC-D643-A3BC-0FB53FCF30E6}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" hidden="1" customWidth="1"/>
-    <col min="3" max="6" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="21" t="s">
+    <row r="1" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="34">
+        <f>26.7+7.8</f>
+        <v>34.5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>35.1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="34" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B3,'epa22'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B3,'epa22'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B3,'epa22'!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>26.7 (24.0 - 29.3)</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B3,'epa23'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B3,'epa23'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B3,'epa23'!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>27.3 (25.1 - 30.6)</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="e">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B3), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B3,'epa22'!A:F,2,FALSE)-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3">
+        <f>30.9-26.7</f>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="J3">
+        <f>30.9/27.3-1</f>
+        <v>0.13186813186813184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6">
-        <f>SUM(C3,C10)</f>
-        <v>34.456306977934332</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
-        <v>26.7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="15" t="str">
-        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B4,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B4,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B4,epa!A:F,4,FALSE),1),"0.0"),")")</f>
-        <v>9.4 (8.6 - 10.2)</v>
-      </c>
-      <c r="D4" s="16" t="str">
+      <c r="C4" s="35" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B4,'epa22'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B4,'epa22'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B4,'epa22'!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>9.4 (8.5 - 10.7)</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B4,'epa23'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B4,'epa23'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B4,'epa23'!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>9.4 (8.5 - 10.7)</v>
+      </c>
+      <c r="E4" s="16" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B4), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B4), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B4), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
         <v>10.4 (10.0 - 10.7)</v>
       </c>
-      <c r="E4" s="30" t="str">
+      <c r="F4" s="26" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B4), raw!A:I, 7, FALSE), 2), "0.00"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B4), raw!A:I, 8, FALSE), 2), "0.00"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B4), raw!A:I, 9, FALSE), 2), "0.00"), ")")</f>
         <v>0.66 (0.55 - 0.76)</v>
       </c>
-      <c r="F4" s="17" t="str">
+      <c r="G4" s="17" t="str">
         <f>_xlfn.CONCAT(TEXT(100*VLOOKUP(_xlfn.CONCAT("prior_sub_", Sheet2!B4), raw!A:L, 10, FALSE), "0"), " (", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B4), raw!A:L, 11, FALSE), "0"), " - ", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B4), raw!A:L, 12, FALSE), "0"), ")")</f>
         <v>66 (54 - 76)</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B4), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B4,'epa22'!A:F,2,FALSE)-1</f>
+        <v>0.10653080216930277</v>
+      </c>
+      <c r="I4">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B4), raw!A:F, 2, FALSE)-VLOOKUP(Sheet2!B4,'epa22'!A:F,2,FALSE)</f>
+        <v>0.99924984163839881</v>
+      </c>
+      <c r="J4">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B4), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B4,'epa23'!A:F,2,FALSE)-1</f>
+        <v>0.1066012426976477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="32" t="str">
-        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B5,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B5,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B5,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="36" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B5,'epa22'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B5,'epa22'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B5,'epa22'!A:F,4,FALSE),1),"0.0"),")")</f>
         <v>8.7 (7.4 - 10.2)</v>
       </c>
       <c r="D5" s="33" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B5,'epa23'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B5,'epa23'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B5,'epa23'!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>9.3 (8.1 - 10.6)</v>
+      </c>
+      <c r="E5" s="42" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B5), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B5), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B5), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
         <v>10.4 (10.1 - 10.7)</v>
       </c>
-      <c r="E5" s="34" t="str">
+      <c r="F5" s="28" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B5), raw!A:I, 7, FALSE), 2), "0.00"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B5), raw!A:I, 8, FALSE), 2), "0.00"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B5), raw!A:I, 9, FALSE), 2), "0.00"), ")")</f>
         <v>0.91 (0.88 - 0.95)</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="G5" s="3" t="str">
         <f>_xlfn.CONCAT(TEXT(100*VLOOKUP(_xlfn.CONCAT("prior_sub_", Sheet2!B5), raw!A:L, 10, FALSE), "0"), " (", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B5), raw!A:L, 11, FALSE), "0"), " - ", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B5), raw!A:L, 12, FALSE), "0"), ")")</f>
         <v>88 (84 - 92)</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>3</v>
+      <c r="H5">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B5), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B5,'epa22'!A:F,2,FALSE)-1</f>
+        <v>0.19140967046885526</v>
+      </c>
+      <c r="I5">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B5), raw!A:F, 2, FALSE)-VLOOKUP(Sheet2!B5,'epa22'!A:F,2,FALSE)</f>
+        <v>1.6725460224750996</v>
+      </c>
+      <c r="J5">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B5), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B5,'epa23'!A:F,2,FALSE)-1</f>
+        <v>0.1207739558656642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="str">
-        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B6,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B6,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B6,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>8</v>
+      </c>
+      <c r="C6" s="37" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B6,'epa22'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B6,'epa22'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B6,'epa22'!A:F,4,FALSE),1),"0.0"),")")</f>
         <v>2.1 (2.0 - 2.5)</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="11" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B6,'epa23'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B6,'epa23'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B6,'epa23'!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>2.1 (1.9 - 2.5)</v>
+      </c>
+      <c r="E6" s="12" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B6), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B6), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B6), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
         <v>1.5 (1.2 - 1.9)</v>
       </c>
-      <c r="E6" s="35" t="str">
+      <c r="F6" s="29" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B6), raw!A:I, 7, FALSE), 2), "0.00"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B6), raw!A:I, 8, FALSE), 2), "0.00"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B6), raw!A:I, 9, FALSE), 2), "0.00"), ")")</f>
         <v>0.60 (0.45 - 0.80)</v>
       </c>
-      <c r="F6" s="18" t="str">
+      <c r="G6" s="18" t="str">
         <f>_xlfn.CONCAT(TEXT(100*VLOOKUP(_xlfn.CONCAT("prior_sub_", Sheet2!B6), raw!A:L, 10, FALSE), "0"), " (", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B6), raw!A:L, 11, FALSE), "0"), " - ", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B6), raw!A:L, 12, FALSE), "0"), ")")</f>
         <v>96 (95 - 98)</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B6), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B6,'epa22'!A:F,2,FALSE)-1</f>
+        <v>-0.28339185448972593</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B6), raw!A:F, 2, FALSE)-VLOOKUP(Sheet2!B6,'epa22'!A:F,2,FALSE)</f>
+        <v>-0.60403608685922006</v>
+      </c>
+      <c r="J6">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B6), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B6,'epa23'!A:F,2,FALSE)-1</f>
+        <v>-0.28221544451552127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="32" t="str">
-        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B7,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B7,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B7,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="36" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B7,'epa22'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B7,'epa22'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B7,'epa22'!A:F,4,FALSE),1),"0.0"),")")</f>
         <v>4.5 (3.5 - 5.5)</v>
       </c>
       <c r="D7" s="33" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B7,'epa23'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B7,'epa23'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B7,'epa23'!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>4.6 (3.7 - 5.8)</v>
+      </c>
+      <c r="E7" s="42" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B7), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B7), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B7), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
         <v>6.9 (6.4 - 7.5)</v>
       </c>
-      <c r="E7" s="34" t="str">
+      <c r="F7" s="28" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B7), raw!A:I, 7, FALSE), 2), "0.00"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B7), raw!A:I, 8, FALSE), 2), "0.00"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B7), raw!A:I, 9, FALSE), 2), "0.00"), ")")</f>
         <v>0.47 (0.34 - 0.64)</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="G7" s="3" t="str">
         <f>_xlfn.CONCAT(TEXT(100*VLOOKUP(_xlfn.CONCAT("prior_sub_", Sheet2!B7), raw!A:L, 10, FALSE), "0"), " (", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B7), raw!A:L, 11, FALSE), "0"), " - ", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B7), raw!A:L, 12, FALSE), "0"), ")")</f>
         <v>81 (72 - 90)</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>5</v>
+      <c r="H7">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B7), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B7,'epa22'!A:F,2,FALSE)-1</f>
+        <v>0.52795772900728366</v>
+      </c>
+      <c r="I7">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B7), raw!A:F, 2, FALSE)-VLOOKUP(Sheet2!B7,'epa22'!A:F,2,FALSE)</f>
+        <v>2.3817188101456805</v>
+      </c>
+      <c r="J7">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B7), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B7,'epa23'!A:F,2,FALSE)-1</f>
+        <v>0.50833274355128411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11" t="str">
-        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B8,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B8,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B8,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>10</v>
+      </c>
+      <c r="C8" s="37" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B8,'epa22'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B8,'epa22'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B8,'epa22'!A:F,4,FALSE),1),"0.0"),")")</f>
         <v>0.7 (0.5 - 0.9)</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="11" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B8,'epa23'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B8,'epa23'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B8,'epa23'!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>0.8 (0.5 - 1.0)</v>
+      </c>
+      <c r="E8" s="12" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B8), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B8), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B8), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
         <v>0.6 (0.5 - 0.7)</v>
       </c>
-      <c r="E8" s="35" t="str">
+      <c r="F8" s="29" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B8), raw!A:I, 7, FALSE), 2), "0.00"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B8), raw!A:I, 8, FALSE), 2), "0.00"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B8), raw!A:I, 9, FALSE), 2), "0.00"), ")")</f>
         <v>0.33 (0.16 - 0.60)</v>
       </c>
-      <c r="F8" s="18" t="str">
+      <c r="G8" s="18" t="str">
         <f>_xlfn.CONCAT(TEXT(100*VLOOKUP(_xlfn.CONCAT("prior_sub_", Sheet2!B8), raw!A:L, 10, FALSE), "0"), " (", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B8), raw!A:L, 11, FALSE), "0"), " - ", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B8), raw!A:L, 12, FALSE), "0"), ")")</f>
         <v>82 (71 - 90)</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B8), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B8,'epa22'!A:F,2,FALSE)-1</f>
+        <v>-0.13764834507042567</v>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B8), raw!A:F, 2, FALSE)-VLOOKUP(Sheet2!B8,'epa22'!A:F,2,FALSE)</f>
+        <v>-9.9226123412696987E-2</v>
+      </c>
+      <c r="J8">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B8), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B8,'epa23'!A:F,2,FALSE)-1</f>
+        <v>-0.17496625478172145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="32" t="str">
-        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B9,epa!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B9,epa!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B9,epa!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>22</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="36" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B9,'epa22'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B9,'epa22'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B9,'epa22'!A:F,4,FALSE),1),"0.0"),")")</f>
         <v>1.2 (0.7 - 1.8)</v>
       </c>
       <c r="D9" s="33" t="str">
+        <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(Sheet2!B9,'epa23'!A:F,2,FALSE),1),"0.0")," (",TEXT(ROUND(VLOOKUP(Sheet2!B9,'epa23'!A:F,3,FALSE),1),"0.0")," - ",TEXT(ROUND(VLOOKUP(Sheet2!B9,'epa23'!A:F,4,FALSE),1),"0.0"),")")</f>
+        <v>1.2 (0.7 - 1.8)</v>
+      </c>
+      <c r="E9" s="42" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B9), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B9), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B9), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
         <v>1.1 (1.0 - 1.2)</v>
       </c>
-      <c r="E9" s="34" t="str">
+      <c r="F9" s="28" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B9), raw!A:I, 7, FALSE), 2), "0.00"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B9), raw!A:I, 8, FALSE), 2), "0.00"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B9), raw!A:I, 9, FALSE), 2), "0.00"), ")")</f>
         <v>0.59 (0.44 - 0.76)</v>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="G9" s="3" t="str">
         <f>_xlfn.CONCAT(TEXT(100*VLOOKUP(_xlfn.CONCAT("prior_sub_", Sheet2!B9), raw!A:L, 10, FALSE), "0"), " (", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B9), raw!A:L, 11, FALSE), "0"), " - ", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B9), raw!A:L, 12, FALSE), "0"), ")")</f>
         <v>80 (68 - 89)</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
+      <c r="H9">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B9), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B9,'epa22'!A:F,2,FALSE)-1</f>
+        <v>-6.2660414009191423E-2</v>
+      </c>
+      <c r="I9">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B9), raw!A:F, 2, FALSE)-VLOOKUP(Sheet2!B9,'epa22'!A:F,2,FALSE)</f>
+        <v>-7.3953163426319968E-2</v>
+      </c>
+      <c r="J9">
+        <f>VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B9), raw!A:F, 2, FALSE)/VLOOKUP(Sheet2!B9,'epa23'!A:F,2,FALSE)-1</f>
+        <v>-6.3639984937299388E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="49">
         <f>SUM(C11:C12)</f>
         <v>7.7563069779343294</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="15">
+        <v>11</v>
+      </c>
+      <c r="C11" s="51">
         <f>VLOOKUP(CONCATENATE("prior_", LOWER(B11)),raw!A:F, 2, FALSE)</f>
         <v>6.6284714498648896</v>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="52"/>
+      <c r="E11" s="16" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B11), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B11), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B11), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
         <v>7.2 (7.0 - 7.4)</v>
       </c>
-      <c r="E11" s="30" t="str">
+      <c r="F11" s="26" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B11), raw!A:I, 7, FALSE), 2), "0.00"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B11), raw!A:I, 8, FALSE), 2), "0.00"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B11), raw!A:I, 9, FALSE), 2), "0.00"), ")")</f>
         <v>0.35 (0.16 - 0.55)</v>
       </c>
-      <c r="F11" s="17" t="str">
+      <c r="G11" s="17" t="str">
         <f>_xlfn.CONCAT(TEXT(100*VLOOKUP(_xlfn.CONCAT("prior_sub_", Sheet2!B11), raw!A:L, 10, FALSE), "0"), " (", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B11), raw!A:L, 11, FALSE), "0"), " - ", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B11), raw!A:L, 12, FALSE), "0"), ")")</f>
         <v>56 (37 - 72)</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>25</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="25">
+        <v>24</v>
+      </c>
+      <c r="C12" s="53">
         <f>VLOOKUP(CONCATENATE("prior_", LOWER(B12)),raw!A:F, 2, FALSE)</f>
         <v>1.1278355280694401</v>
       </c>
-      <c r="D12" s="26" t="str">
+      <c r="D12" s="54"/>
+      <c r="E12" s="23" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B12), raw!A:F, 2, FALSE), 1), "0.0"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B12), raw!A:F, 5, FALSE), 1), "0.0"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B12), raw!A:F, 6, FALSE), 1), "0.0"), ")")</f>
         <v>1.2 (1.2 - 1.2)</v>
       </c>
-      <c r="E12" s="36" t="str">
+      <c r="F12" s="30" t="str">
         <f>_xlfn.CONCAT(TEXT(ROUND(VLOOKUP(_xlfn.CONCAT("post_", Sheet2!B12), raw!A:I, 7, FALSE), 2), "0.00"), " (", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B12), raw!A:I, 8, FALSE), 2), "0.00"), " - ", TEXT(ROUND(VLOOKUP(CONCATENATE("post_", Sheet2!B12), raw!A:I, 9, FALSE), 2), "0.00"), ")")</f>
         <v>0.25 (0.19 - 0.32)</v>
       </c>
-      <c r="F12" s="4" t="str">
+      <c r="G12" s="4" t="str">
         <f>_xlfn.CONCAT(TEXT(100*VLOOKUP(_xlfn.CONCAT("prior_sub_", Sheet2!B12), raw!A:L, 10, FALSE), "0"), " (", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B12), raw!A:L, 11, FALSE), "0"), " - ", TEXT(100*VLOOKUP(CONCATENATE("prior_sub_", Sheet2!B12), raw!A:L, 12, FALSE), "0"), ")")</f>
         <v>41 (31 - 50)</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f>I7+I5+I4</f>
+        <v>5.053514674259179</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C10" formula="1"/>
